--- a/Project2_Maroofi_Irwin/data_staging/inflation_excel_series/Personal_Consumption_Expenditures_PCE.xlsx
+++ b/Project2_Maroofi_Irwin/data_staging/inflation_excel_series/Personal_Consumption_Expenditures_PCE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3004" uniqueCount="1503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3056" uniqueCount="1529">
   <si>
     <t>realtime_start</t>
   </si>
@@ -28,7 +28,7 @@
     <t>value</t>
   </si>
   <si>
-    <t>2021-08-03</t>
+    <t>2022-09-13</t>
   </si>
   <si>
     <t>1959-01-01</t>
@@ -2281,6 +2281,45 @@
     <t>2021-06-01</t>
   </si>
   <si>
+    <t>2021-07-01</t>
+  </si>
+  <si>
+    <t>2021-08-01</t>
+  </si>
+  <si>
+    <t>2021-09-01</t>
+  </si>
+  <si>
+    <t>2021-10-01</t>
+  </si>
+  <si>
+    <t>2021-11-01</t>
+  </si>
+  <si>
+    <t>2021-12-01</t>
+  </si>
+  <si>
+    <t>2022-01-01</t>
+  </si>
+  <si>
+    <t>2022-02-01</t>
+  </si>
+  <si>
+    <t>2022-03-01</t>
+  </si>
+  <si>
+    <t>2022-04-01</t>
+  </si>
+  <si>
+    <t>2022-05-01</t>
+  </si>
+  <si>
+    <t>2022-06-01</t>
+  </si>
+  <si>
+    <t>2022-07-01</t>
+  </si>
+  <si>
     <t>306.1</t>
   </si>
   <si>
@@ -4516,13 +4555,52 @@
     <t>15458.9</t>
   </si>
   <si>
-    <t>15630.0</t>
-  </si>
-  <si>
-    <t>15616.2</t>
-  </si>
-  <si>
-    <t>15771.6</t>
+    <t>15618.7</t>
+  </si>
+  <si>
+    <t>15624.4</t>
+  </si>
+  <si>
+    <t>15802.0</t>
+  </si>
+  <si>
+    <t>15814.9</t>
+  </si>
+  <si>
+    <t>15991.1</t>
+  </si>
+  <si>
+    <t>16088.9</t>
+  </si>
+  <si>
+    <t>16309.5</t>
+  </si>
+  <si>
+    <t>16390.9</t>
+  </si>
+  <si>
+    <t>16242.3</t>
+  </si>
+  <si>
+    <t>16543.3</t>
+  </si>
+  <si>
+    <t>16635.8</t>
+  </si>
+  <si>
+    <t>16831.2</t>
+  </si>
+  <si>
+    <t>16904.9</t>
+  </si>
+  <si>
+    <t>16991.6</t>
+  </si>
+  <si>
+    <t>17160.6</t>
+  </si>
+  <si>
+    <t>17184.3</t>
   </si>
 </sst>
 </file>
@@ -4880,7 +4958,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E751"/>
+  <dimension ref="A1:E764"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4917,7 +4995,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>755</v>
+        <v>768</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4934,7 +5012,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4951,7 +5029,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>757</v>
+        <v>770</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4968,7 +5046,7 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>758</v>
+        <v>771</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4985,7 +5063,7 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>759</v>
+        <v>772</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5002,7 +5080,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>760</v>
+        <v>773</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5019,7 +5097,7 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>761</v>
+        <v>774</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5036,7 +5114,7 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5053,7 +5131,7 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>763</v>
+        <v>776</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5070,7 +5148,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>764</v>
+        <v>777</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5087,7 +5165,7 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>765</v>
+        <v>778</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5104,7 +5182,7 @@
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>765</v>
+        <v>778</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5121,7 +5199,7 @@
         <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>766</v>
+        <v>779</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5138,7 +5216,7 @@
         <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>767</v>
+        <v>780</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5155,7 +5233,7 @@
         <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5172,7 +5250,7 @@
         <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>769</v>
+        <v>782</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5189,7 +5267,7 @@
         <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>770</v>
+        <v>783</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5206,7 +5284,7 @@
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>771</v>
+        <v>784</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5223,7 +5301,7 @@
         <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>772</v>
+        <v>785</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5240,7 +5318,7 @@
         <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>773</v>
+        <v>786</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -5257,7 +5335,7 @@
         <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>774</v>
+        <v>787</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -5274,7 +5352,7 @@
         <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>775</v>
+        <v>788</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5291,7 +5369,7 @@
         <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>775</v>
+        <v>788</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5308,7 +5386,7 @@
         <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>776</v>
+        <v>789</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -5325,7 +5403,7 @@
         <v>29</v>
       </c>
       <c r="E26" t="s">
-        <v>777</v>
+        <v>790</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -5342,7 +5420,7 @@
         <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>778</v>
+        <v>791</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -5359,7 +5437,7 @@
         <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>779</v>
+        <v>792</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -5376,7 +5454,7 @@
         <v>32</v>
       </c>
       <c r="E29" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -5393,7 +5471,7 @@
         <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>781</v>
+        <v>794</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -5410,7 +5488,7 @@
         <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>782</v>
+        <v>795</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -5427,7 +5505,7 @@
         <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>783</v>
+        <v>796</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -5444,7 +5522,7 @@
         <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>784</v>
+        <v>797</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -5461,7 +5539,7 @@
         <v>37</v>
       </c>
       <c r="E34" t="s">
-        <v>785</v>
+        <v>798</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -5478,7 +5556,7 @@
         <v>38</v>
       </c>
       <c r="E35" t="s">
-        <v>786</v>
+        <v>799</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -5495,7 +5573,7 @@
         <v>39</v>
       </c>
       <c r="E36" t="s">
-        <v>787</v>
+        <v>800</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -5512,7 +5590,7 @@
         <v>40</v>
       </c>
       <c r="E37" t="s">
-        <v>788</v>
+        <v>801</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -5529,7 +5607,7 @@
         <v>41</v>
       </c>
       <c r="E38" t="s">
-        <v>789</v>
+        <v>802</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -5546,7 +5624,7 @@
         <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>790</v>
+        <v>803</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -5563,7 +5641,7 @@
         <v>43</v>
       </c>
       <c r="E40" t="s">
-        <v>791</v>
+        <v>804</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -5580,7 +5658,7 @@
         <v>44</v>
       </c>
       <c r="E41" t="s">
-        <v>792</v>
+        <v>805</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -5597,7 +5675,7 @@
         <v>45</v>
       </c>
       <c r="E42" t="s">
-        <v>793</v>
+        <v>806</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -5614,7 +5692,7 @@
         <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>794</v>
+        <v>807</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -5631,7 +5709,7 @@
         <v>47</v>
       </c>
       <c r="E44" t="s">
-        <v>795</v>
+        <v>808</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -5648,7 +5726,7 @@
         <v>48</v>
       </c>
       <c r="E45" t="s">
-        <v>796</v>
+        <v>809</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -5665,7 +5743,7 @@
         <v>49</v>
       </c>
       <c r="E46" t="s">
-        <v>797</v>
+        <v>810</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -5682,7 +5760,7 @@
         <v>50</v>
       </c>
       <c r="E47" t="s">
-        <v>798</v>
+        <v>811</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -5699,7 +5777,7 @@
         <v>51</v>
       </c>
       <c r="E48" t="s">
-        <v>799</v>
+        <v>812</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -5716,7 +5794,7 @@
         <v>52</v>
       </c>
       <c r="E49" t="s">
-        <v>800</v>
+        <v>813</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -5733,7 +5811,7 @@
         <v>53</v>
       </c>
       <c r="E50" t="s">
-        <v>801</v>
+        <v>814</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -5750,7 +5828,7 @@
         <v>54</v>
       </c>
       <c r="E51" t="s">
-        <v>802</v>
+        <v>815</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -5767,7 +5845,7 @@
         <v>55</v>
       </c>
       <c r="E52" t="s">
-        <v>803</v>
+        <v>816</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -5784,7 +5862,7 @@
         <v>56</v>
       </c>
       <c r="E53" t="s">
-        <v>804</v>
+        <v>817</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -5801,7 +5879,7 @@
         <v>57</v>
       </c>
       <c r="E54" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -5818,7 +5896,7 @@
         <v>58</v>
       </c>
       <c r="E55" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -5835,7 +5913,7 @@
         <v>59</v>
       </c>
       <c r="E56" t="s">
-        <v>807</v>
+        <v>820</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -5852,7 +5930,7 @@
         <v>60</v>
       </c>
       <c r="E57" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -5869,7 +5947,7 @@
         <v>61</v>
       </c>
       <c r="E58" t="s">
-        <v>809</v>
+        <v>822</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -5886,7 +5964,7 @@
         <v>62</v>
       </c>
       <c r="E59" t="s">
-        <v>810</v>
+        <v>823</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -5903,7 +5981,7 @@
         <v>63</v>
       </c>
       <c r="E60" t="s">
-        <v>811</v>
+        <v>824</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -5920,7 +5998,7 @@
         <v>64</v>
       </c>
       <c r="E61" t="s">
-        <v>812</v>
+        <v>825</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -5937,7 +6015,7 @@
         <v>65</v>
       </c>
       <c r="E62" t="s">
-        <v>813</v>
+        <v>826</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -5954,7 +6032,7 @@
         <v>66</v>
       </c>
       <c r="E63" t="s">
-        <v>814</v>
+        <v>827</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -5971,7 +6049,7 @@
         <v>67</v>
       </c>
       <c r="E64" t="s">
-        <v>815</v>
+        <v>828</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -5988,7 +6066,7 @@
         <v>68</v>
       </c>
       <c r="E65" t="s">
-        <v>816</v>
+        <v>829</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -6005,7 +6083,7 @@
         <v>69</v>
       </c>
       <c r="E66" t="s">
-        <v>817</v>
+        <v>830</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -6022,7 +6100,7 @@
         <v>70</v>
       </c>
       <c r="E67" t="s">
-        <v>818</v>
+        <v>831</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -6039,7 +6117,7 @@
         <v>71</v>
       </c>
       <c r="E68" t="s">
-        <v>819</v>
+        <v>832</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -6056,7 +6134,7 @@
         <v>72</v>
       </c>
       <c r="E69" t="s">
-        <v>820</v>
+        <v>833</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -6073,7 +6151,7 @@
         <v>73</v>
       </c>
       <c r="E70" t="s">
-        <v>821</v>
+        <v>834</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -6090,7 +6168,7 @@
         <v>74</v>
       </c>
       <c r="E71" t="s">
-        <v>822</v>
+        <v>835</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -6107,7 +6185,7 @@
         <v>75</v>
       </c>
       <c r="E72" t="s">
-        <v>823</v>
+        <v>836</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -6124,7 +6202,7 @@
         <v>76</v>
       </c>
       <c r="E73" t="s">
-        <v>824</v>
+        <v>837</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -6141,7 +6219,7 @@
         <v>77</v>
       </c>
       <c r="E74" t="s">
-        <v>825</v>
+        <v>838</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -6158,7 +6236,7 @@
         <v>78</v>
       </c>
       <c r="E75" t="s">
-        <v>826</v>
+        <v>839</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -6175,7 +6253,7 @@
         <v>79</v>
       </c>
       <c r="E76" t="s">
-        <v>827</v>
+        <v>840</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -6192,7 +6270,7 @@
         <v>80</v>
       </c>
       <c r="E77" t="s">
-        <v>828</v>
+        <v>841</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -6209,7 +6287,7 @@
         <v>81</v>
       </c>
       <c r="E78" t="s">
-        <v>829</v>
+        <v>842</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -6226,7 +6304,7 @@
         <v>82</v>
       </c>
       <c r="E79" t="s">
-        <v>830</v>
+        <v>843</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -6243,7 +6321,7 @@
         <v>83</v>
       </c>
       <c r="E80" t="s">
-        <v>831</v>
+        <v>844</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -6260,7 +6338,7 @@
         <v>84</v>
       </c>
       <c r="E81" t="s">
-        <v>832</v>
+        <v>845</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -6277,7 +6355,7 @@
         <v>85</v>
       </c>
       <c r="E82" t="s">
-        <v>833</v>
+        <v>846</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -6294,7 +6372,7 @@
         <v>86</v>
       </c>
       <c r="E83" t="s">
-        <v>834</v>
+        <v>847</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -6311,7 +6389,7 @@
         <v>87</v>
       </c>
       <c r="E84" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -6328,7 +6406,7 @@
         <v>88</v>
       </c>
       <c r="E85" t="s">
-        <v>836</v>
+        <v>849</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -6345,7 +6423,7 @@
         <v>89</v>
       </c>
       <c r="E86" t="s">
-        <v>837</v>
+        <v>850</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -6362,7 +6440,7 @@
         <v>90</v>
       </c>
       <c r="E87" t="s">
-        <v>838</v>
+        <v>851</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -6379,7 +6457,7 @@
         <v>91</v>
       </c>
       <c r="E88" t="s">
-        <v>839</v>
+        <v>852</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -6396,7 +6474,7 @@
         <v>92</v>
       </c>
       <c r="E89" t="s">
-        <v>840</v>
+        <v>853</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -6413,7 +6491,7 @@
         <v>93</v>
       </c>
       <c r="E90" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -6430,7 +6508,7 @@
         <v>94</v>
       </c>
       <c r="E91" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -6447,7 +6525,7 @@
         <v>95</v>
       </c>
       <c r="E92" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -6464,7 +6542,7 @@
         <v>96</v>
       </c>
       <c r="E93" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -6481,7 +6559,7 @@
         <v>97</v>
       </c>
       <c r="E94" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -6498,7 +6576,7 @@
         <v>98</v>
       </c>
       <c r="E95" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -6515,7 +6593,7 @@
         <v>99</v>
       </c>
       <c r="E96" t="s">
-        <v>847</v>
+        <v>860</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -6532,7 +6610,7 @@
         <v>100</v>
       </c>
       <c r="E97" t="s">
-        <v>848</v>
+        <v>861</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -6549,7 +6627,7 @@
         <v>101</v>
       </c>
       <c r="E98" t="s">
-        <v>849</v>
+        <v>862</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -6566,7 +6644,7 @@
         <v>102</v>
       </c>
       <c r="E99" t="s">
-        <v>850</v>
+        <v>863</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -6583,7 +6661,7 @@
         <v>103</v>
       </c>
       <c r="E100" t="s">
-        <v>851</v>
+        <v>864</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -6600,7 +6678,7 @@
         <v>104</v>
       </c>
       <c r="E101" t="s">
-        <v>852</v>
+        <v>865</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -6617,7 +6695,7 @@
         <v>105</v>
       </c>
       <c r="E102" t="s">
-        <v>853</v>
+        <v>866</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -6634,7 +6712,7 @@
         <v>106</v>
       </c>
       <c r="E103" t="s">
-        <v>854</v>
+        <v>867</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -6651,7 +6729,7 @@
         <v>107</v>
       </c>
       <c r="E104" t="s">
-        <v>855</v>
+        <v>868</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -6668,7 +6746,7 @@
         <v>108</v>
       </c>
       <c r="E105" t="s">
-        <v>856</v>
+        <v>869</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -6685,7 +6763,7 @@
         <v>109</v>
       </c>
       <c r="E106" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -6702,7 +6780,7 @@
         <v>110</v>
       </c>
       <c r="E107" t="s">
-        <v>858</v>
+        <v>871</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -6719,7 +6797,7 @@
         <v>111</v>
       </c>
       <c r="E108" t="s">
-        <v>859</v>
+        <v>872</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -6736,7 +6814,7 @@
         <v>112</v>
       </c>
       <c r="E109" t="s">
-        <v>860</v>
+        <v>873</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -6753,7 +6831,7 @@
         <v>113</v>
       </c>
       <c r="E110" t="s">
-        <v>861</v>
+        <v>874</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -6770,7 +6848,7 @@
         <v>114</v>
       </c>
       <c r="E111" t="s">
-        <v>862</v>
+        <v>875</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -6787,7 +6865,7 @@
         <v>115</v>
       </c>
       <c r="E112" t="s">
-        <v>863</v>
+        <v>876</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -6804,7 +6882,7 @@
         <v>116</v>
       </c>
       <c r="E113" t="s">
-        <v>864</v>
+        <v>877</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -6821,7 +6899,7 @@
         <v>117</v>
       </c>
       <c r="E114" t="s">
-        <v>865</v>
+        <v>878</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -6838,7 +6916,7 @@
         <v>118</v>
       </c>
       <c r="E115" t="s">
-        <v>866</v>
+        <v>879</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -6855,7 +6933,7 @@
         <v>119</v>
       </c>
       <c r="E116" t="s">
-        <v>867</v>
+        <v>880</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -6872,7 +6950,7 @@
         <v>120</v>
       </c>
       <c r="E117" t="s">
-        <v>868</v>
+        <v>881</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -6889,7 +6967,7 @@
         <v>121</v>
       </c>
       <c r="E118" t="s">
-        <v>869</v>
+        <v>882</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -6906,7 +6984,7 @@
         <v>122</v>
       </c>
       <c r="E119" t="s">
-        <v>870</v>
+        <v>883</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -6923,7 +7001,7 @@
         <v>123</v>
       </c>
       <c r="E120" t="s">
-        <v>871</v>
+        <v>884</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -6940,7 +7018,7 @@
         <v>124</v>
       </c>
       <c r="E121" t="s">
-        <v>872</v>
+        <v>885</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -6957,7 +7035,7 @@
         <v>125</v>
       </c>
       <c r="E122" t="s">
-        <v>873</v>
+        <v>886</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -6974,7 +7052,7 @@
         <v>126</v>
       </c>
       <c r="E123" t="s">
-        <v>874</v>
+        <v>887</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -6991,7 +7069,7 @@
         <v>127</v>
       </c>
       <c r="E124" t="s">
-        <v>875</v>
+        <v>888</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -7008,7 +7086,7 @@
         <v>128</v>
       </c>
       <c r="E125" t="s">
-        <v>876</v>
+        <v>889</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -7025,7 +7103,7 @@
         <v>129</v>
       </c>
       <c r="E126" t="s">
-        <v>877</v>
+        <v>890</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -7042,7 +7120,7 @@
         <v>130</v>
       </c>
       <c r="E127" t="s">
-        <v>878</v>
+        <v>891</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -7059,7 +7137,7 @@
         <v>131</v>
       </c>
       <c r="E128" t="s">
-        <v>879</v>
+        <v>892</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -7076,7 +7154,7 @@
         <v>132</v>
       </c>
       <c r="E129" t="s">
-        <v>880</v>
+        <v>893</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -7093,7 +7171,7 @@
         <v>133</v>
       </c>
       <c r="E130" t="s">
-        <v>881</v>
+        <v>894</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -7110,7 +7188,7 @@
         <v>134</v>
       </c>
       <c r="E131" t="s">
-        <v>882</v>
+        <v>895</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -7127,7 +7205,7 @@
         <v>135</v>
       </c>
       <c r="E132" t="s">
-        <v>883</v>
+        <v>896</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -7144,7 +7222,7 @@
         <v>136</v>
       </c>
       <c r="E133" t="s">
-        <v>884</v>
+        <v>897</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -7161,7 +7239,7 @@
         <v>137</v>
       </c>
       <c r="E134" t="s">
-        <v>885</v>
+        <v>898</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -7178,7 +7256,7 @@
         <v>138</v>
       </c>
       <c r="E135" t="s">
-        <v>886</v>
+        <v>899</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -7195,7 +7273,7 @@
         <v>139</v>
       </c>
       <c r="E136" t="s">
-        <v>887</v>
+        <v>900</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -7212,7 +7290,7 @@
         <v>140</v>
       </c>
       <c r="E137" t="s">
-        <v>888</v>
+        <v>901</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -7229,7 +7307,7 @@
         <v>141</v>
       </c>
       <c r="E138" t="s">
-        <v>889</v>
+        <v>902</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -7246,7 +7324,7 @@
         <v>142</v>
       </c>
       <c r="E139" t="s">
-        <v>890</v>
+        <v>903</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -7263,7 +7341,7 @@
         <v>143</v>
       </c>
       <c r="E140" t="s">
-        <v>891</v>
+        <v>904</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -7280,7 +7358,7 @@
         <v>144</v>
       </c>
       <c r="E141" t="s">
-        <v>892</v>
+        <v>905</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -7297,7 +7375,7 @@
         <v>145</v>
       </c>
       <c r="E142" t="s">
-        <v>893</v>
+        <v>906</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -7314,7 +7392,7 @@
         <v>146</v>
       </c>
       <c r="E143" t="s">
-        <v>894</v>
+        <v>907</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -7331,7 +7409,7 @@
         <v>147</v>
       </c>
       <c r="E144" t="s">
-        <v>895</v>
+        <v>908</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -7348,7 +7426,7 @@
         <v>148</v>
       </c>
       <c r="E145" t="s">
-        <v>896</v>
+        <v>909</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -7365,7 +7443,7 @@
         <v>149</v>
       </c>
       <c r="E146" t="s">
-        <v>897</v>
+        <v>910</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -7382,7 +7460,7 @@
         <v>150</v>
       </c>
       <c r="E147" t="s">
-        <v>898</v>
+        <v>911</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -7399,7 +7477,7 @@
         <v>151</v>
       </c>
       <c r="E148" t="s">
-        <v>899</v>
+        <v>912</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -7416,7 +7494,7 @@
         <v>152</v>
       </c>
       <c r="E149" t="s">
-        <v>900</v>
+        <v>913</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -7433,7 +7511,7 @@
         <v>153</v>
       </c>
       <c r="E150" t="s">
-        <v>901</v>
+        <v>914</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -7450,7 +7528,7 @@
         <v>154</v>
       </c>
       <c r="E151" t="s">
-        <v>902</v>
+        <v>915</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -7467,7 +7545,7 @@
         <v>155</v>
       </c>
       <c r="E152" t="s">
-        <v>903</v>
+        <v>916</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -7484,7 +7562,7 @@
         <v>156</v>
       </c>
       <c r="E153" t="s">
-        <v>904</v>
+        <v>917</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -7501,7 +7579,7 @@
         <v>157</v>
       </c>
       <c r="E154" t="s">
-        <v>905</v>
+        <v>918</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -7518,7 +7596,7 @@
         <v>158</v>
       </c>
       <c r="E155" t="s">
-        <v>906</v>
+        <v>919</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -7535,7 +7613,7 @@
         <v>159</v>
       </c>
       <c r="E156" t="s">
-        <v>907</v>
+        <v>920</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -7552,7 +7630,7 @@
         <v>160</v>
       </c>
       <c r="E157" t="s">
-        <v>908</v>
+        <v>921</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -7569,7 +7647,7 @@
         <v>161</v>
       </c>
       <c r="E158" t="s">
-        <v>909</v>
+        <v>922</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -7586,7 +7664,7 @@
         <v>162</v>
       </c>
       <c r="E159" t="s">
-        <v>910</v>
+        <v>923</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -7603,7 +7681,7 @@
         <v>163</v>
       </c>
       <c r="E160" t="s">
-        <v>911</v>
+        <v>924</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -7620,7 +7698,7 @@
         <v>164</v>
       </c>
       <c r="E161" t="s">
-        <v>912</v>
+        <v>925</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -7637,7 +7715,7 @@
         <v>165</v>
       </c>
       <c r="E162" t="s">
-        <v>913</v>
+        <v>926</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -7654,7 +7732,7 @@
         <v>166</v>
       </c>
       <c r="E163" t="s">
-        <v>914</v>
+        <v>927</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -7671,7 +7749,7 @@
         <v>167</v>
       </c>
       <c r="E164" t="s">
-        <v>915</v>
+        <v>928</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -7688,7 +7766,7 @@
         <v>168</v>
       </c>
       <c r="E165" t="s">
-        <v>916</v>
+        <v>929</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -7705,7 +7783,7 @@
         <v>169</v>
       </c>
       <c r="E166" t="s">
-        <v>917</v>
+        <v>930</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -7722,7 +7800,7 @@
         <v>170</v>
       </c>
       <c r="E167" t="s">
-        <v>918</v>
+        <v>931</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -7739,7 +7817,7 @@
         <v>171</v>
       </c>
       <c r="E168" t="s">
-        <v>919</v>
+        <v>932</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -7756,7 +7834,7 @@
         <v>172</v>
       </c>
       <c r="E169" t="s">
-        <v>920</v>
+        <v>933</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -7773,7 +7851,7 @@
         <v>173</v>
       </c>
       <c r="E170" t="s">
-        <v>921</v>
+        <v>934</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -7790,7 +7868,7 @@
         <v>174</v>
       </c>
       <c r="E171" t="s">
-        <v>922</v>
+        <v>935</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -7807,7 +7885,7 @@
         <v>175</v>
       </c>
       <c r="E172" t="s">
-        <v>923</v>
+        <v>936</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -7824,7 +7902,7 @@
         <v>176</v>
       </c>
       <c r="E173" t="s">
-        <v>924</v>
+        <v>937</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -7841,7 +7919,7 @@
         <v>177</v>
       </c>
       <c r="E174" t="s">
-        <v>925</v>
+        <v>938</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -7858,7 +7936,7 @@
         <v>178</v>
       </c>
       <c r="E175" t="s">
-        <v>926</v>
+        <v>939</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -7875,7 +7953,7 @@
         <v>179</v>
       </c>
       <c r="E176" t="s">
-        <v>927</v>
+        <v>940</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -7892,7 +7970,7 @@
         <v>180</v>
       </c>
       <c r="E177" t="s">
-        <v>928</v>
+        <v>941</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -7909,7 +7987,7 @@
         <v>181</v>
       </c>
       <c r="E178" t="s">
-        <v>929</v>
+        <v>942</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -7926,7 +8004,7 @@
         <v>182</v>
       </c>
       <c r="E179" t="s">
-        <v>930</v>
+        <v>943</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -7943,7 +8021,7 @@
         <v>183</v>
       </c>
       <c r="E180" t="s">
-        <v>931</v>
+        <v>944</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -7960,7 +8038,7 @@
         <v>184</v>
       </c>
       <c r="E181" t="s">
-        <v>932</v>
+        <v>945</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -7977,7 +8055,7 @@
         <v>185</v>
       </c>
       <c r="E182" t="s">
-        <v>933</v>
+        <v>946</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -7994,7 +8072,7 @@
         <v>186</v>
       </c>
       <c r="E183" t="s">
-        <v>934</v>
+        <v>947</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -8011,7 +8089,7 @@
         <v>187</v>
       </c>
       <c r="E184" t="s">
-        <v>935</v>
+        <v>948</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -8028,7 +8106,7 @@
         <v>188</v>
       </c>
       <c r="E185" t="s">
-        <v>936</v>
+        <v>949</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -8045,7 +8123,7 @@
         <v>189</v>
       </c>
       <c r="E186" t="s">
-        <v>937</v>
+        <v>950</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -8062,7 +8140,7 @@
         <v>190</v>
       </c>
       <c r="E187" t="s">
-        <v>938</v>
+        <v>951</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -8079,7 +8157,7 @@
         <v>191</v>
       </c>
       <c r="E188" t="s">
-        <v>939</v>
+        <v>952</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -8096,7 +8174,7 @@
         <v>192</v>
       </c>
       <c r="E189" t="s">
-        <v>940</v>
+        <v>953</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -8113,7 +8191,7 @@
         <v>193</v>
       </c>
       <c r="E190" t="s">
-        <v>941</v>
+        <v>954</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -8130,7 +8208,7 @@
         <v>194</v>
       </c>
       <c r="E191" t="s">
-        <v>942</v>
+        <v>955</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -8147,7 +8225,7 @@
         <v>195</v>
       </c>
       <c r="E192" t="s">
-        <v>943</v>
+        <v>956</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -8164,7 +8242,7 @@
         <v>196</v>
       </c>
       <c r="E193" t="s">
-        <v>944</v>
+        <v>957</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -8181,7 +8259,7 @@
         <v>197</v>
       </c>
       <c r="E194" t="s">
-        <v>945</v>
+        <v>958</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -8198,7 +8276,7 @@
         <v>198</v>
       </c>
       <c r="E195" t="s">
-        <v>946</v>
+        <v>959</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -8215,7 +8293,7 @@
         <v>199</v>
       </c>
       <c r="E196" t="s">
-        <v>947</v>
+        <v>960</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -8232,7 +8310,7 @@
         <v>200</v>
       </c>
       <c r="E197" t="s">
-        <v>948</v>
+        <v>961</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -8249,7 +8327,7 @@
         <v>201</v>
       </c>
       <c r="E198" t="s">
-        <v>949</v>
+        <v>962</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -8266,7 +8344,7 @@
         <v>202</v>
       </c>
       <c r="E199" t="s">
-        <v>950</v>
+        <v>963</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -8283,7 +8361,7 @@
         <v>203</v>
       </c>
       <c r="E200" t="s">
-        <v>951</v>
+        <v>964</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -8300,7 +8378,7 @@
         <v>204</v>
       </c>
       <c r="E201" t="s">
-        <v>952</v>
+        <v>965</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -8317,7 +8395,7 @@
         <v>205</v>
       </c>
       <c r="E202" t="s">
-        <v>953</v>
+        <v>966</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -8334,7 +8412,7 @@
         <v>206</v>
       </c>
       <c r="E203" t="s">
-        <v>954</v>
+        <v>967</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -8351,7 +8429,7 @@
         <v>207</v>
       </c>
       <c r="E204" t="s">
-        <v>955</v>
+        <v>968</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -8368,7 +8446,7 @@
         <v>208</v>
       </c>
       <c r="E205" t="s">
-        <v>956</v>
+        <v>969</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -8385,7 +8463,7 @@
         <v>209</v>
       </c>
       <c r="E206" t="s">
-        <v>957</v>
+        <v>970</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -8402,7 +8480,7 @@
         <v>210</v>
       </c>
       <c r="E207" t="s">
-        <v>958</v>
+        <v>971</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -8419,7 +8497,7 @@
         <v>211</v>
       </c>
       <c r="E208" t="s">
-        <v>959</v>
+        <v>972</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -8436,7 +8514,7 @@
         <v>212</v>
       </c>
       <c r="E209" t="s">
-        <v>960</v>
+        <v>973</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -8453,7 +8531,7 @@
         <v>213</v>
       </c>
       <c r="E210" t="s">
-        <v>961</v>
+        <v>974</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -8470,7 +8548,7 @@
         <v>214</v>
       </c>
       <c r="E211" t="s">
-        <v>962</v>
+        <v>975</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -8487,7 +8565,7 @@
         <v>215</v>
       </c>
       <c r="E212" t="s">
-        <v>963</v>
+        <v>976</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -8504,7 +8582,7 @@
         <v>216</v>
       </c>
       <c r="E213" t="s">
-        <v>964</v>
+        <v>977</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -8521,7 +8599,7 @@
         <v>217</v>
       </c>
       <c r="E214" t="s">
-        <v>965</v>
+        <v>978</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -8538,7 +8616,7 @@
         <v>218</v>
       </c>
       <c r="E215" t="s">
-        <v>966</v>
+        <v>979</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -8555,7 +8633,7 @@
         <v>219</v>
       </c>
       <c r="E216" t="s">
-        <v>967</v>
+        <v>980</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -8572,7 +8650,7 @@
         <v>220</v>
       </c>
       <c r="E217" t="s">
-        <v>968</v>
+        <v>981</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -8589,7 +8667,7 @@
         <v>221</v>
       </c>
       <c r="E218" t="s">
-        <v>969</v>
+        <v>982</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -8606,7 +8684,7 @@
         <v>222</v>
       </c>
       <c r="E219" t="s">
-        <v>970</v>
+        <v>983</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -8623,7 +8701,7 @@
         <v>223</v>
       </c>
       <c r="E220" t="s">
-        <v>971</v>
+        <v>984</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -8640,7 +8718,7 @@
         <v>224</v>
       </c>
       <c r="E221" t="s">
-        <v>972</v>
+        <v>985</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -8657,7 +8735,7 @@
         <v>225</v>
       </c>
       <c r="E222" t="s">
-        <v>973</v>
+        <v>986</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -8674,7 +8752,7 @@
         <v>226</v>
       </c>
       <c r="E223" t="s">
-        <v>974</v>
+        <v>987</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -8691,7 +8769,7 @@
         <v>227</v>
       </c>
       <c r="E224" t="s">
-        <v>975</v>
+        <v>988</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -8708,7 +8786,7 @@
         <v>228</v>
       </c>
       <c r="E225" t="s">
-        <v>976</v>
+        <v>989</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -8725,7 +8803,7 @@
         <v>229</v>
       </c>
       <c r="E226" t="s">
-        <v>977</v>
+        <v>990</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -8742,7 +8820,7 @@
         <v>230</v>
       </c>
       <c r="E227" t="s">
-        <v>978</v>
+        <v>991</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -8759,7 +8837,7 @@
         <v>231</v>
       </c>
       <c r="E228" t="s">
-        <v>979</v>
+        <v>992</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -8776,7 +8854,7 @@
         <v>232</v>
       </c>
       <c r="E229" t="s">
-        <v>980</v>
+        <v>993</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -8793,7 +8871,7 @@
         <v>233</v>
       </c>
       <c r="E230" t="s">
-        <v>981</v>
+        <v>994</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -8810,7 +8888,7 @@
         <v>234</v>
       </c>
       <c r="E231" t="s">
-        <v>982</v>
+        <v>995</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -8827,7 +8905,7 @@
         <v>235</v>
       </c>
       <c r="E232" t="s">
-        <v>983</v>
+        <v>996</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -8844,7 +8922,7 @@
         <v>236</v>
       </c>
       <c r="E233" t="s">
-        <v>984</v>
+        <v>997</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -8861,7 +8939,7 @@
         <v>237</v>
       </c>
       <c r="E234" t="s">
-        <v>985</v>
+        <v>998</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -8878,7 +8956,7 @@
         <v>238</v>
       </c>
       <c r="E235" t="s">
-        <v>986</v>
+        <v>999</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -8895,7 +8973,7 @@
         <v>239</v>
       </c>
       <c r="E236" t="s">
-        <v>987</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -8912,7 +8990,7 @@
         <v>240</v>
       </c>
       <c r="E237" t="s">
-        <v>988</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -8929,7 +9007,7 @@
         <v>241</v>
       </c>
       <c r="E238" t="s">
-        <v>989</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -8946,7 +9024,7 @@
         <v>242</v>
       </c>
       <c r="E239" t="s">
-        <v>990</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -8963,7 +9041,7 @@
         <v>243</v>
       </c>
       <c r="E240" t="s">
-        <v>991</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -8980,7 +9058,7 @@
         <v>244</v>
       </c>
       <c r="E241" t="s">
-        <v>992</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -8997,7 +9075,7 @@
         <v>245</v>
       </c>
       <c r="E242" t="s">
-        <v>993</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -9014,7 +9092,7 @@
         <v>246</v>
       </c>
       <c r="E243" t="s">
-        <v>994</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -9031,7 +9109,7 @@
         <v>247</v>
       </c>
       <c r="E244" t="s">
-        <v>995</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -9048,7 +9126,7 @@
         <v>248</v>
       </c>
       <c r="E245" t="s">
-        <v>996</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -9065,7 +9143,7 @@
         <v>249</v>
       </c>
       <c r="E246" t="s">
-        <v>997</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -9082,7 +9160,7 @@
         <v>250</v>
       </c>
       <c r="E247" t="s">
-        <v>998</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -9099,7 +9177,7 @@
         <v>251</v>
       </c>
       <c r="E248" t="s">
-        <v>999</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -9116,7 +9194,7 @@
         <v>252</v>
       </c>
       <c r="E249" t="s">
-        <v>1000</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -9133,7 +9211,7 @@
         <v>253</v>
       </c>
       <c r="E250" t="s">
-        <v>1001</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -9150,7 +9228,7 @@
         <v>254</v>
       </c>
       <c r="E251" t="s">
-        <v>1002</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -9167,7 +9245,7 @@
         <v>255</v>
       </c>
       <c r="E252" t="s">
-        <v>1003</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -9184,7 +9262,7 @@
         <v>256</v>
       </c>
       <c r="E253" t="s">
-        <v>1004</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -9201,7 +9279,7 @@
         <v>257</v>
       </c>
       <c r="E254" t="s">
-        <v>1005</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -9218,7 +9296,7 @@
         <v>258</v>
       </c>
       <c r="E255" t="s">
-        <v>1006</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -9235,7 +9313,7 @@
         <v>259</v>
       </c>
       <c r="E256" t="s">
-        <v>1007</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -9252,7 +9330,7 @@
         <v>260</v>
       </c>
       <c r="E257" t="s">
-        <v>1008</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -9269,7 +9347,7 @@
         <v>261</v>
       </c>
       <c r="E258" t="s">
-        <v>1009</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -9286,7 +9364,7 @@
         <v>262</v>
       </c>
       <c r="E259" t="s">
-        <v>1010</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -9303,7 +9381,7 @@
         <v>263</v>
       </c>
       <c r="E260" t="s">
-        <v>1011</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -9320,7 +9398,7 @@
         <v>264</v>
       </c>
       <c r="E261" t="s">
-        <v>1012</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -9337,7 +9415,7 @@
         <v>265</v>
       </c>
       <c r="E262" t="s">
-        <v>1013</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -9354,7 +9432,7 @@
         <v>266</v>
       </c>
       <c r="E263" t="s">
-        <v>1014</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -9371,7 +9449,7 @@
         <v>267</v>
       </c>
       <c r="E264" t="s">
-        <v>1015</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -9388,7 +9466,7 @@
         <v>268</v>
       </c>
       <c r="E265" t="s">
-        <v>1016</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -9405,7 +9483,7 @@
         <v>269</v>
       </c>
       <c r="E266" t="s">
-        <v>1017</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -9422,7 +9500,7 @@
         <v>270</v>
       </c>
       <c r="E267" t="s">
-        <v>1018</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -9439,7 +9517,7 @@
         <v>271</v>
       </c>
       <c r="E268" t="s">
-        <v>1019</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -9456,7 +9534,7 @@
         <v>272</v>
       </c>
       <c r="E269" t="s">
-        <v>1020</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -9473,7 +9551,7 @@
         <v>273</v>
       </c>
       <c r="E270" t="s">
-        <v>1021</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -9490,7 +9568,7 @@
         <v>274</v>
       </c>
       <c r="E271" t="s">
-        <v>1022</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -9507,7 +9585,7 @@
         <v>275</v>
       </c>
       <c r="E272" t="s">
-        <v>1023</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -9524,7 +9602,7 @@
         <v>276</v>
       </c>
       <c r="E273" t="s">
-        <v>1024</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -9541,7 +9619,7 @@
         <v>277</v>
       </c>
       <c r="E274" t="s">
-        <v>1025</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -9558,7 +9636,7 @@
         <v>278</v>
       </c>
       <c r="E275" t="s">
-        <v>1026</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -9575,7 +9653,7 @@
         <v>279</v>
       </c>
       <c r="E276" t="s">
-        <v>1027</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -9592,7 +9670,7 @@
         <v>280</v>
       </c>
       <c r="E277" t="s">
-        <v>1028</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -9609,7 +9687,7 @@
         <v>281</v>
       </c>
       <c r="E278" t="s">
-        <v>1029</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -9626,7 +9704,7 @@
         <v>282</v>
       </c>
       <c r="E279" t="s">
-        <v>1030</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -9643,7 +9721,7 @@
         <v>283</v>
       </c>
       <c r="E280" t="s">
-        <v>1031</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -9660,7 +9738,7 @@
         <v>284</v>
       </c>
       <c r="E281" t="s">
-        <v>1032</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -9677,7 +9755,7 @@
         <v>285</v>
       </c>
       <c r="E282" t="s">
-        <v>1033</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -9694,7 +9772,7 @@
         <v>286</v>
       </c>
       <c r="E283" t="s">
-        <v>1034</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -9711,7 +9789,7 @@
         <v>287</v>
       </c>
       <c r="E284" t="s">
-        <v>1035</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -9728,7 +9806,7 @@
         <v>288</v>
       </c>
       <c r="E285" t="s">
-        <v>1036</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -9745,7 +9823,7 @@
         <v>289</v>
       </c>
       <c r="E286" t="s">
-        <v>1037</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -9762,7 +9840,7 @@
         <v>290</v>
       </c>
       <c r="E287" t="s">
-        <v>1038</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -9779,7 +9857,7 @@
         <v>291</v>
       </c>
       <c r="E288" t="s">
-        <v>1039</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -9796,7 +9874,7 @@
         <v>292</v>
       </c>
       <c r="E289" t="s">
-        <v>1040</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -9813,7 +9891,7 @@
         <v>293</v>
       </c>
       <c r="E290" t="s">
-        <v>1041</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -9830,7 +9908,7 @@
         <v>294</v>
       </c>
       <c r="E291" t="s">
-        <v>1042</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -9847,7 +9925,7 @@
         <v>295</v>
       </c>
       <c r="E292" t="s">
-        <v>1043</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -9864,7 +9942,7 @@
         <v>296</v>
       </c>
       <c r="E293" t="s">
-        <v>1044</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -9881,7 +9959,7 @@
         <v>297</v>
       </c>
       <c r="E294" t="s">
-        <v>1045</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -9898,7 +9976,7 @@
         <v>298</v>
       </c>
       <c r="E295" t="s">
-        <v>1046</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -9915,7 +9993,7 @@
         <v>299</v>
       </c>
       <c r="E296" t="s">
-        <v>1047</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -9932,7 +10010,7 @@
         <v>300</v>
       </c>
       <c r="E297" t="s">
-        <v>1048</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -9949,7 +10027,7 @@
         <v>301</v>
       </c>
       <c r="E298" t="s">
-        <v>1049</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -9966,7 +10044,7 @@
         <v>302</v>
       </c>
       <c r="E299" t="s">
-        <v>1050</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -9983,7 +10061,7 @@
         <v>303</v>
       </c>
       <c r="E300" t="s">
-        <v>1051</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -10000,7 +10078,7 @@
         <v>304</v>
       </c>
       <c r="E301" t="s">
-        <v>1052</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -10017,7 +10095,7 @@
         <v>305</v>
       </c>
       <c r="E302" t="s">
-        <v>1053</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -10034,7 +10112,7 @@
         <v>306</v>
       </c>
       <c r="E303" t="s">
-        <v>1054</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -10051,7 +10129,7 @@
         <v>307</v>
       </c>
       <c r="E304" t="s">
-        <v>1055</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -10068,7 +10146,7 @@
         <v>308</v>
       </c>
       <c r="E305" t="s">
-        <v>1056</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -10085,7 +10163,7 @@
         <v>309</v>
       </c>
       <c r="E306" t="s">
-        <v>1057</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -10102,7 +10180,7 @@
         <v>310</v>
       </c>
       <c r="E307" t="s">
-        <v>1058</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -10119,7 +10197,7 @@
         <v>311</v>
       </c>
       <c r="E308" t="s">
-        <v>1059</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -10136,7 +10214,7 @@
         <v>312</v>
       </c>
       <c r="E309" t="s">
-        <v>1060</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -10153,7 +10231,7 @@
         <v>313</v>
       </c>
       <c r="E310" t="s">
-        <v>1061</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -10170,7 +10248,7 @@
         <v>314</v>
       </c>
       <c r="E311" t="s">
-        <v>1062</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -10187,7 +10265,7 @@
         <v>315</v>
       </c>
       <c r="E312" t="s">
-        <v>1063</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -10204,7 +10282,7 @@
         <v>316</v>
       </c>
       <c r="E313" t="s">
-        <v>1064</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -10221,7 +10299,7 @@
         <v>317</v>
       </c>
       <c r="E314" t="s">
-        <v>1065</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -10238,7 +10316,7 @@
         <v>318</v>
       </c>
       <c r="E315" t="s">
-        <v>1066</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -10255,7 +10333,7 @@
         <v>319</v>
       </c>
       <c r="E316" t="s">
-        <v>1067</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -10272,7 +10350,7 @@
         <v>320</v>
       </c>
       <c r="E317" t="s">
-        <v>1068</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -10289,7 +10367,7 @@
         <v>321</v>
       </c>
       <c r="E318" t="s">
-        <v>1069</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -10306,7 +10384,7 @@
         <v>322</v>
       </c>
       <c r="E319" t="s">
-        <v>1070</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -10323,7 +10401,7 @@
         <v>323</v>
       </c>
       <c r="E320" t="s">
-        <v>1071</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -10340,7 +10418,7 @@
         <v>324</v>
       </c>
       <c r="E321" t="s">
-        <v>1072</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -10357,7 +10435,7 @@
         <v>325</v>
       </c>
       <c r="E322" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -10374,7 +10452,7 @@
         <v>326</v>
       </c>
       <c r="E323" t="s">
-        <v>1074</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -10391,7 +10469,7 @@
         <v>327</v>
       </c>
       <c r="E324" t="s">
-        <v>1075</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -10408,7 +10486,7 @@
         <v>328</v>
       </c>
       <c r="E325" t="s">
-        <v>1076</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -10425,7 +10503,7 @@
         <v>329</v>
       </c>
       <c r="E326" t="s">
-        <v>1077</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -10442,7 +10520,7 @@
         <v>330</v>
       </c>
       <c r="E327" t="s">
-        <v>1078</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -10459,7 +10537,7 @@
         <v>331</v>
       </c>
       <c r="E328" t="s">
-        <v>1079</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -10476,7 +10554,7 @@
         <v>332</v>
       </c>
       <c r="E329" t="s">
-        <v>1080</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -10493,7 +10571,7 @@
         <v>333</v>
       </c>
       <c r="E330" t="s">
-        <v>1081</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -10510,7 +10588,7 @@
         <v>334</v>
       </c>
       <c r="E331" t="s">
-        <v>1082</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -10527,7 +10605,7 @@
         <v>335</v>
       </c>
       <c r="E332" t="s">
-        <v>1083</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -10544,7 +10622,7 @@
         <v>336</v>
       </c>
       <c r="E333" t="s">
-        <v>1084</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -10561,7 +10639,7 @@
         <v>337</v>
       </c>
       <c r="E334" t="s">
-        <v>1085</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -10578,7 +10656,7 @@
         <v>338</v>
       </c>
       <c r="E335" t="s">
-        <v>1086</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -10595,7 +10673,7 @@
         <v>339</v>
       </c>
       <c r="E336" t="s">
-        <v>1087</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -10612,7 +10690,7 @@
         <v>340</v>
       </c>
       <c r="E337" t="s">
-        <v>1088</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -10629,7 +10707,7 @@
         <v>341</v>
       </c>
       <c r="E338" t="s">
-        <v>1089</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -10646,7 +10724,7 @@
         <v>342</v>
       </c>
       <c r="E339" t="s">
-        <v>1090</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -10663,7 +10741,7 @@
         <v>343</v>
       </c>
       <c r="E340" t="s">
-        <v>1091</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -10680,7 +10758,7 @@
         <v>344</v>
       </c>
       <c r="E341" t="s">
-        <v>1092</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -10697,7 +10775,7 @@
         <v>345</v>
       </c>
       <c r="E342" t="s">
-        <v>1093</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -10714,7 +10792,7 @@
         <v>346</v>
       </c>
       <c r="E343" t="s">
-        <v>1094</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -10731,7 +10809,7 @@
         <v>347</v>
       </c>
       <c r="E344" t="s">
-        <v>1095</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -10748,7 +10826,7 @@
         <v>348</v>
       </c>
       <c r="E345" t="s">
-        <v>1096</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -10765,7 +10843,7 @@
         <v>349</v>
       </c>
       <c r="E346" t="s">
-        <v>1097</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -10782,7 +10860,7 @@
         <v>350</v>
       </c>
       <c r="E347" t="s">
-        <v>1098</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -10799,7 +10877,7 @@
         <v>351</v>
       </c>
       <c r="E348" t="s">
-        <v>1099</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -10816,7 +10894,7 @@
         <v>352</v>
       </c>
       <c r="E349" t="s">
-        <v>1100</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -10833,7 +10911,7 @@
         <v>353</v>
       </c>
       <c r="E350" t="s">
-        <v>1101</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -10850,7 +10928,7 @@
         <v>354</v>
       </c>
       <c r="E351" t="s">
-        <v>1102</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -10867,7 +10945,7 @@
         <v>355</v>
       </c>
       <c r="E352" t="s">
-        <v>1103</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -10884,7 +10962,7 @@
         <v>356</v>
       </c>
       <c r="E353" t="s">
-        <v>1104</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -10901,7 +10979,7 @@
         <v>357</v>
       </c>
       <c r="E354" t="s">
-        <v>1105</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -10918,7 +10996,7 @@
         <v>358</v>
       </c>
       <c r="E355" t="s">
-        <v>1106</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -10935,7 +11013,7 @@
         <v>359</v>
       </c>
       <c r="E356" t="s">
-        <v>1107</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -10952,7 +11030,7 @@
         <v>360</v>
       </c>
       <c r="E357" t="s">
-        <v>1108</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -10969,7 +11047,7 @@
         <v>361</v>
       </c>
       <c r="E358" t="s">
-        <v>1109</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -10986,7 +11064,7 @@
         <v>362</v>
       </c>
       <c r="E359" t="s">
-        <v>1110</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -11003,7 +11081,7 @@
         <v>363</v>
       </c>
       <c r="E360" t="s">
-        <v>1111</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -11020,7 +11098,7 @@
         <v>364</v>
       </c>
       <c r="E361" t="s">
-        <v>1112</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -11037,7 +11115,7 @@
         <v>365</v>
       </c>
       <c r="E362" t="s">
-        <v>1113</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -11054,7 +11132,7 @@
         <v>366</v>
       </c>
       <c r="E363" t="s">
-        <v>1114</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -11071,7 +11149,7 @@
         <v>367</v>
       </c>
       <c r="E364" t="s">
-        <v>1115</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -11088,7 +11166,7 @@
         <v>368</v>
       </c>
       <c r="E365" t="s">
-        <v>1116</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -11105,7 +11183,7 @@
         <v>369</v>
       </c>
       <c r="E366" t="s">
-        <v>1117</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -11122,7 +11200,7 @@
         <v>370</v>
       </c>
       <c r="E367" t="s">
-        <v>1118</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -11139,7 +11217,7 @@
         <v>371</v>
       </c>
       <c r="E368" t="s">
-        <v>1119</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -11156,7 +11234,7 @@
         <v>372</v>
       </c>
       <c r="E369" t="s">
-        <v>1120</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -11173,7 +11251,7 @@
         <v>373</v>
       </c>
       <c r="E370" t="s">
-        <v>1121</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -11190,7 +11268,7 @@
         <v>374</v>
       </c>
       <c r="E371" t="s">
-        <v>1122</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -11207,7 +11285,7 @@
         <v>375</v>
       </c>
       <c r="E372" t="s">
-        <v>1123</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -11224,7 +11302,7 @@
         <v>376</v>
       </c>
       <c r="E373" t="s">
-        <v>1124</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -11241,7 +11319,7 @@
         <v>377</v>
       </c>
       <c r="E374" t="s">
-        <v>1125</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -11258,7 +11336,7 @@
         <v>378</v>
       </c>
       <c r="E375" t="s">
-        <v>1126</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -11275,7 +11353,7 @@
         <v>379</v>
       </c>
       <c r="E376" t="s">
-        <v>1127</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -11292,7 +11370,7 @@
         <v>380</v>
       </c>
       <c r="E377" t="s">
-        <v>1128</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -11309,7 +11387,7 @@
         <v>381</v>
       </c>
       <c r="E378" t="s">
-        <v>1129</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -11326,7 +11404,7 @@
         <v>382</v>
       </c>
       <c r="E379" t="s">
-        <v>1130</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -11343,7 +11421,7 @@
         <v>383</v>
       </c>
       <c r="E380" t="s">
-        <v>1131</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -11360,7 +11438,7 @@
         <v>384</v>
       </c>
       <c r="E381" t="s">
-        <v>1132</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -11377,7 +11455,7 @@
         <v>385</v>
       </c>
       <c r="E382" t="s">
-        <v>1133</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -11394,7 +11472,7 @@
         <v>386</v>
       </c>
       <c r="E383" t="s">
-        <v>1134</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -11411,7 +11489,7 @@
         <v>387</v>
       </c>
       <c r="E384" t="s">
-        <v>1135</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -11428,7 +11506,7 @@
         <v>388</v>
       </c>
       <c r="E385" t="s">
-        <v>1136</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -11445,7 +11523,7 @@
         <v>389</v>
       </c>
       <c r="E386" t="s">
-        <v>1137</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -11462,7 +11540,7 @@
         <v>390</v>
       </c>
       <c r="E387" t="s">
-        <v>1138</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -11479,7 +11557,7 @@
         <v>391</v>
       </c>
       <c r="E388" t="s">
-        <v>1139</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -11496,7 +11574,7 @@
         <v>392</v>
       </c>
       <c r="E389" t="s">
-        <v>1140</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -11513,7 +11591,7 @@
         <v>393</v>
       </c>
       <c r="E390" t="s">
-        <v>1141</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -11530,7 +11608,7 @@
         <v>394</v>
       </c>
       <c r="E391" t="s">
-        <v>1142</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -11547,7 +11625,7 @@
         <v>395</v>
       </c>
       <c r="E392" t="s">
-        <v>1143</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -11564,7 +11642,7 @@
         <v>396</v>
       </c>
       <c r="E393" t="s">
-        <v>1144</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -11581,7 +11659,7 @@
         <v>397</v>
       </c>
       <c r="E394" t="s">
-        <v>1145</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -11598,7 +11676,7 @@
         <v>398</v>
       </c>
       <c r="E395" t="s">
-        <v>1146</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -11615,7 +11693,7 @@
         <v>399</v>
       </c>
       <c r="E396" t="s">
-        <v>1147</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -11632,7 +11710,7 @@
         <v>400</v>
       </c>
       <c r="E397" t="s">
-        <v>1148</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -11649,7 +11727,7 @@
         <v>401</v>
       </c>
       <c r="E398" t="s">
-        <v>1149</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -11666,7 +11744,7 @@
         <v>402</v>
       </c>
       <c r="E399" t="s">
-        <v>1150</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -11683,7 +11761,7 @@
         <v>403</v>
       </c>
       <c r="E400" t="s">
-        <v>1151</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -11700,7 +11778,7 @@
         <v>404</v>
       </c>
       <c r="E401" t="s">
-        <v>1152</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -11717,7 +11795,7 @@
         <v>405</v>
       </c>
       <c r="E402" t="s">
-        <v>1153</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -11734,7 +11812,7 @@
         <v>406</v>
       </c>
       <c r="E403" t="s">
-        <v>1154</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -11751,7 +11829,7 @@
         <v>407</v>
       </c>
       <c r="E404" t="s">
-        <v>1155</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -11768,7 +11846,7 @@
         <v>408</v>
       </c>
       <c r="E405" t="s">
-        <v>1156</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -11785,7 +11863,7 @@
         <v>409</v>
       </c>
       <c r="E406" t="s">
-        <v>1157</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -11802,7 +11880,7 @@
         <v>410</v>
       </c>
       <c r="E407" t="s">
-        <v>1158</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -11819,7 +11897,7 @@
         <v>411</v>
       </c>
       <c r="E408" t="s">
-        <v>1159</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -11836,7 +11914,7 @@
         <v>412</v>
       </c>
       <c r="E409" t="s">
-        <v>1160</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -11853,7 +11931,7 @@
         <v>413</v>
       </c>
       <c r="E410" t="s">
-        <v>1161</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -11870,7 +11948,7 @@
         <v>414</v>
       </c>
       <c r="E411" t="s">
-        <v>1162</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -11887,7 +11965,7 @@
         <v>415</v>
       </c>
       <c r="E412" t="s">
-        <v>1163</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -11904,7 +11982,7 @@
         <v>416</v>
       </c>
       <c r="E413" t="s">
-        <v>1164</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -11921,7 +11999,7 @@
         <v>417</v>
       </c>
       <c r="E414" t="s">
-        <v>1165</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -11938,7 +12016,7 @@
         <v>418</v>
       </c>
       <c r="E415" t="s">
-        <v>1166</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -11955,7 +12033,7 @@
         <v>419</v>
       </c>
       <c r="E416" t="s">
-        <v>1167</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -11972,7 +12050,7 @@
         <v>420</v>
       </c>
       <c r="E417" t="s">
-        <v>1168</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -11989,7 +12067,7 @@
         <v>421</v>
       </c>
       <c r="E418" t="s">
-        <v>1169</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -12006,7 +12084,7 @@
         <v>422</v>
       </c>
       <c r="E419" t="s">
-        <v>1170</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -12023,7 +12101,7 @@
         <v>423</v>
       </c>
       <c r="E420" t="s">
-        <v>1171</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -12040,7 +12118,7 @@
         <v>424</v>
       </c>
       <c r="E421" t="s">
-        <v>1172</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -12057,7 +12135,7 @@
         <v>425</v>
       </c>
       <c r="E422" t="s">
-        <v>1173</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -12074,7 +12152,7 @@
         <v>426</v>
       </c>
       <c r="E423" t="s">
-        <v>1174</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -12091,7 +12169,7 @@
         <v>427</v>
       </c>
       <c r="E424" t="s">
-        <v>1175</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -12108,7 +12186,7 @@
         <v>428</v>
       </c>
       <c r="E425" t="s">
-        <v>1176</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -12125,7 +12203,7 @@
         <v>429</v>
       </c>
       <c r="E426" t="s">
-        <v>1177</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -12142,7 +12220,7 @@
         <v>430</v>
       </c>
       <c r="E427" t="s">
-        <v>1178</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -12159,7 +12237,7 @@
         <v>431</v>
       </c>
       <c r="E428" t="s">
-        <v>1179</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -12176,7 +12254,7 @@
         <v>432</v>
       </c>
       <c r="E429" t="s">
-        <v>1180</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -12193,7 +12271,7 @@
         <v>433</v>
       </c>
       <c r="E430" t="s">
-        <v>1181</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -12210,7 +12288,7 @@
         <v>434</v>
       </c>
       <c r="E431" t="s">
-        <v>1182</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -12227,7 +12305,7 @@
         <v>435</v>
       </c>
       <c r="E432" t="s">
-        <v>1183</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -12244,7 +12322,7 @@
         <v>436</v>
       </c>
       <c r="E433" t="s">
-        <v>1184</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -12261,7 +12339,7 @@
         <v>437</v>
       </c>
       <c r="E434" t="s">
-        <v>1185</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -12278,7 +12356,7 @@
         <v>438</v>
       </c>
       <c r="E435" t="s">
-        <v>1186</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -12295,7 +12373,7 @@
         <v>439</v>
       </c>
       <c r="E436" t="s">
-        <v>1187</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="437" spans="1:5">
@@ -12312,7 +12390,7 @@
         <v>440</v>
       </c>
       <c r="E437" t="s">
-        <v>1188</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="438" spans="1:5">
@@ -12329,7 +12407,7 @@
         <v>441</v>
       </c>
       <c r="E438" t="s">
-        <v>1189</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="439" spans="1:5">
@@ -12346,7 +12424,7 @@
         <v>442</v>
       </c>
       <c r="E439" t="s">
-        <v>1190</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="440" spans="1:5">
@@ -12363,7 +12441,7 @@
         <v>443</v>
       </c>
       <c r="E440" t="s">
-        <v>1191</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="441" spans="1:5">
@@ -12380,7 +12458,7 @@
         <v>444</v>
       </c>
       <c r="E441" t="s">
-        <v>1192</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="442" spans="1:5">
@@ -12397,7 +12475,7 @@
         <v>445</v>
       </c>
       <c r="E442" t="s">
-        <v>1193</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="443" spans="1:5">
@@ -12414,7 +12492,7 @@
         <v>446</v>
       </c>
       <c r="E443" t="s">
-        <v>1194</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="444" spans="1:5">
@@ -12431,7 +12509,7 @@
         <v>447</v>
       </c>
       <c r="E444" t="s">
-        <v>1195</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="445" spans="1:5">
@@ -12448,7 +12526,7 @@
         <v>448</v>
       </c>
       <c r="E445" t="s">
-        <v>1196</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="446" spans="1:5">
@@ -12465,7 +12543,7 @@
         <v>449</v>
       </c>
       <c r="E446" t="s">
-        <v>1197</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="447" spans="1:5">
@@ -12482,7 +12560,7 @@
         <v>450</v>
       </c>
       <c r="E447" t="s">
-        <v>1198</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="448" spans="1:5">
@@ -12499,7 +12577,7 @@
         <v>451</v>
       </c>
       <c r="E448" t="s">
-        <v>1199</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="449" spans="1:5">
@@ -12516,7 +12594,7 @@
         <v>452</v>
       </c>
       <c r="E449" t="s">
-        <v>1200</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="450" spans="1:5">
@@ -12533,7 +12611,7 @@
         <v>453</v>
       </c>
       <c r="E450" t="s">
-        <v>1201</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="451" spans="1:5">
@@ -12550,7 +12628,7 @@
         <v>454</v>
       </c>
       <c r="E451" t="s">
-        <v>1202</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="452" spans="1:5">
@@ -12567,7 +12645,7 @@
         <v>455</v>
       </c>
       <c r="E452" t="s">
-        <v>1203</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -12584,7 +12662,7 @@
         <v>456</v>
       </c>
       <c r="E453" t="s">
-        <v>1204</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="454" spans="1:5">
@@ -12601,7 +12679,7 @@
         <v>457</v>
       </c>
       <c r="E454" t="s">
-        <v>1205</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="455" spans="1:5">
@@ -12618,7 +12696,7 @@
         <v>458</v>
       </c>
       <c r="E455" t="s">
-        <v>1206</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="456" spans="1:5">
@@ -12635,7 +12713,7 @@
         <v>459</v>
       </c>
       <c r="E456" t="s">
-        <v>1207</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="457" spans="1:5">
@@ -12652,7 +12730,7 @@
         <v>460</v>
       </c>
       <c r="E457" t="s">
-        <v>1208</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -12669,7 +12747,7 @@
         <v>461</v>
       </c>
       <c r="E458" t="s">
-        <v>1209</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="459" spans="1:5">
@@ -12686,7 +12764,7 @@
         <v>462</v>
       </c>
       <c r="E459" t="s">
-        <v>1210</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="460" spans="1:5">
@@ -12703,7 +12781,7 @@
         <v>463</v>
       </c>
       <c r="E460" t="s">
-        <v>1211</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="461" spans="1:5">
@@ -12720,7 +12798,7 @@
         <v>464</v>
       </c>
       <c r="E461" t="s">
-        <v>1212</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="462" spans="1:5">
@@ -12737,7 +12815,7 @@
         <v>465</v>
       </c>
       <c r="E462" t="s">
-        <v>1213</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -12754,7 +12832,7 @@
         <v>466</v>
       </c>
       <c r="E463" t="s">
-        <v>1214</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -12771,7 +12849,7 @@
         <v>467</v>
       </c>
       <c r="E464" t="s">
-        <v>1215</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -12788,7 +12866,7 @@
         <v>468</v>
       </c>
       <c r="E465" t="s">
-        <v>1216</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="466" spans="1:5">
@@ -12805,7 +12883,7 @@
         <v>469</v>
       </c>
       <c r="E466" t="s">
-        <v>1217</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="467" spans="1:5">
@@ -12822,7 +12900,7 @@
         <v>470</v>
       </c>
       <c r="E467" t="s">
-        <v>1218</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -12839,7 +12917,7 @@
         <v>471</v>
       </c>
       <c r="E468" t="s">
-        <v>1219</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -12856,7 +12934,7 @@
         <v>472</v>
       </c>
       <c r="E469" t="s">
-        <v>1220</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -12873,7 +12951,7 @@
         <v>473</v>
       </c>
       <c r="E470" t="s">
-        <v>1221</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -12890,7 +12968,7 @@
         <v>474</v>
       </c>
       <c r="E471" t="s">
-        <v>1222</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -12907,7 +12985,7 @@
         <v>475</v>
       </c>
       <c r="E472" t="s">
-        <v>1223</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="473" spans="1:5">
@@ -12924,7 +13002,7 @@
         <v>476</v>
       </c>
       <c r="E473" t="s">
-        <v>1224</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -12941,7 +13019,7 @@
         <v>477</v>
       </c>
       <c r="E474" t="s">
-        <v>1225</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="475" spans="1:5">
@@ -12958,7 +13036,7 @@
         <v>478</v>
       </c>
       <c r="E475" t="s">
-        <v>1226</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -12975,7 +13053,7 @@
         <v>479</v>
       </c>
       <c r="E476" t="s">
-        <v>1227</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -12992,7 +13070,7 @@
         <v>480</v>
       </c>
       <c r="E477" t="s">
-        <v>1228</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -13009,7 +13087,7 @@
         <v>481</v>
       </c>
       <c r="E478" t="s">
-        <v>1229</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -13026,7 +13104,7 @@
         <v>482</v>
       </c>
       <c r="E479" t="s">
-        <v>1230</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -13043,7 +13121,7 @@
         <v>483</v>
       </c>
       <c r="E480" t="s">
-        <v>1231</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -13060,7 +13138,7 @@
         <v>484</v>
       </c>
       <c r="E481" t="s">
-        <v>1232</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -13077,7 +13155,7 @@
         <v>485</v>
       </c>
       <c r="E482" t="s">
-        <v>1233</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -13094,7 +13172,7 @@
         <v>486</v>
       </c>
       <c r="E483" t="s">
-        <v>1234</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -13111,7 +13189,7 @@
         <v>487</v>
       </c>
       <c r="E484" t="s">
-        <v>1235</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="485" spans="1:5">
@@ -13128,7 +13206,7 @@
         <v>488</v>
       </c>
       <c r="E485" t="s">
-        <v>1236</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -13145,7 +13223,7 @@
         <v>489</v>
       </c>
       <c r="E486" t="s">
-        <v>1237</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="487" spans="1:5">
@@ -13162,7 +13240,7 @@
         <v>490</v>
       </c>
       <c r="E487" t="s">
-        <v>1238</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="488" spans="1:5">
@@ -13179,7 +13257,7 @@
         <v>491</v>
       </c>
       <c r="E488" t="s">
-        <v>1239</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="489" spans="1:5">
@@ -13196,7 +13274,7 @@
         <v>492</v>
       </c>
       <c r="E489" t="s">
-        <v>1240</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -13213,7 +13291,7 @@
         <v>493</v>
       </c>
       <c r="E490" t="s">
-        <v>1241</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="491" spans="1:5">
@@ -13230,7 +13308,7 @@
         <v>494</v>
       </c>
       <c r="E491" t="s">
-        <v>1242</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="492" spans="1:5">
@@ -13247,7 +13325,7 @@
         <v>495</v>
       </c>
       <c r="E492" t="s">
-        <v>1243</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -13264,7 +13342,7 @@
         <v>496</v>
       </c>
       <c r="E493" t="s">
-        <v>1244</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -13281,7 +13359,7 @@
         <v>497</v>
       </c>
       <c r="E494" t="s">
-        <v>1245</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -13298,7 +13376,7 @@
         <v>498</v>
       </c>
       <c r="E495" t="s">
-        <v>1246</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -13315,7 +13393,7 @@
         <v>499</v>
       </c>
       <c r="E496" t="s">
-        <v>1247</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="497" spans="1:5">
@@ -13332,7 +13410,7 @@
         <v>500</v>
       </c>
       <c r="E497" t="s">
-        <v>1248</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -13349,7 +13427,7 @@
         <v>501</v>
       </c>
       <c r="E498" t="s">
-        <v>1249</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="499" spans="1:5">
@@ -13366,7 +13444,7 @@
         <v>502</v>
       </c>
       <c r="E499" t="s">
-        <v>1250</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -13383,7 +13461,7 @@
         <v>503</v>
       </c>
       <c r="E500" t="s">
-        <v>1251</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="501" spans="1:5">
@@ -13400,7 +13478,7 @@
         <v>504</v>
       </c>
       <c r="E501" t="s">
-        <v>1252</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="502" spans="1:5">
@@ -13417,7 +13495,7 @@
         <v>505</v>
       </c>
       <c r="E502" t="s">
-        <v>1253</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="503" spans="1:5">
@@ -13434,7 +13512,7 @@
         <v>506</v>
       </c>
       <c r="E503" t="s">
-        <v>1254</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="504" spans="1:5">
@@ -13451,7 +13529,7 @@
         <v>507</v>
       </c>
       <c r="E504" t="s">
-        <v>1255</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="505" spans="1:5">
@@ -13468,7 +13546,7 @@
         <v>508</v>
       </c>
       <c r="E505" t="s">
-        <v>1256</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="506" spans="1:5">
@@ -13485,7 +13563,7 @@
         <v>509</v>
       </c>
       <c r="E506" t="s">
-        <v>1257</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="507" spans="1:5">
@@ -13502,7 +13580,7 @@
         <v>510</v>
       </c>
       <c r="E507" t="s">
-        <v>1258</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="508" spans="1:5">
@@ -13519,7 +13597,7 @@
         <v>511</v>
       </c>
       <c r="E508" t="s">
-        <v>1259</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="509" spans="1:5">
@@ -13536,7 +13614,7 @@
         <v>512</v>
       </c>
       <c r="E509" t="s">
-        <v>1260</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="510" spans="1:5">
@@ -13553,7 +13631,7 @@
         <v>513</v>
       </c>
       <c r="E510" t="s">
-        <v>1261</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="511" spans="1:5">
@@ -13570,7 +13648,7 @@
         <v>514</v>
       </c>
       <c r="E511" t="s">
-        <v>1262</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="512" spans="1:5">
@@ -13587,7 +13665,7 @@
         <v>515</v>
       </c>
       <c r="E512" t="s">
-        <v>1263</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="513" spans="1:5">
@@ -13604,7 +13682,7 @@
         <v>516</v>
       </c>
       <c r="E513" t="s">
-        <v>1264</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="514" spans="1:5">
@@ -13621,7 +13699,7 @@
         <v>517</v>
       </c>
       <c r="E514" t="s">
-        <v>1265</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="515" spans="1:5">
@@ -13638,7 +13716,7 @@
         <v>518</v>
       </c>
       <c r="E515" t="s">
-        <v>1266</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="516" spans="1:5">
@@ -13655,7 +13733,7 @@
         <v>519</v>
       </c>
       <c r="E516" t="s">
-        <v>1267</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="517" spans="1:5">
@@ -13672,7 +13750,7 @@
         <v>520</v>
       </c>
       <c r="E517" t="s">
-        <v>1268</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="518" spans="1:5">
@@ -13689,7 +13767,7 @@
         <v>521</v>
       </c>
       <c r="E518" t="s">
-        <v>1269</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="519" spans="1:5">
@@ -13706,7 +13784,7 @@
         <v>522</v>
       </c>
       <c r="E519" t="s">
-        <v>1270</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="520" spans="1:5">
@@ -13723,7 +13801,7 @@
         <v>523</v>
       </c>
       <c r="E520" t="s">
-        <v>1271</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="521" spans="1:5">
@@ -13740,7 +13818,7 @@
         <v>524</v>
       </c>
       <c r="E521" t="s">
-        <v>1272</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="522" spans="1:5">
@@ -13757,7 +13835,7 @@
         <v>525</v>
       </c>
       <c r="E522" t="s">
-        <v>1273</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="523" spans="1:5">
@@ -13774,7 +13852,7 @@
         <v>526</v>
       </c>
       <c r="E523" t="s">
-        <v>1274</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="524" spans="1:5">
@@ -13791,7 +13869,7 @@
         <v>527</v>
       </c>
       <c r="E524" t="s">
-        <v>1275</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="525" spans="1:5">
@@ -13808,7 +13886,7 @@
         <v>528</v>
       </c>
       <c r="E525" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="526" spans="1:5">
@@ -13825,7 +13903,7 @@
         <v>529</v>
       </c>
       <c r="E526" t="s">
-        <v>1277</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="527" spans="1:5">
@@ -13842,7 +13920,7 @@
         <v>530</v>
       </c>
       <c r="E527" t="s">
-        <v>1278</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="528" spans="1:5">
@@ -13859,7 +13937,7 @@
         <v>531</v>
       </c>
       <c r="E528" t="s">
-        <v>1279</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="529" spans="1:5">
@@ -13876,7 +13954,7 @@
         <v>532</v>
       </c>
       <c r="E529" t="s">
-        <v>1280</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="530" spans="1:5">
@@ -13893,7 +13971,7 @@
         <v>533</v>
       </c>
       <c r="E530" t="s">
-        <v>1281</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="531" spans="1:5">
@@ -13910,7 +13988,7 @@
         <v>534</v>
       </c>
       <c r="E531" t="s">
-        <v>1282</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="532" spans="1:5">
@@ -13927,7 +14005,7 @@
         <v>535</v>
       </c>
       <c r="E532" t="s">
-        <v>1283</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="533" spans="1:5">
@@ -13944,7 +14022,7 @@
         <v>536</v>
       </c>
       <c r="E533" t="s">
-        <v>1284</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="534" spans="1:5">
@@ -13961,7 +14039,7 @@
         <v>537</v>
       </c>
       <c r="E534" t="s">
-        <v>1285</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="535" spans="1:5">
@@ -13978,7 +14056,7 @@
         <v>538</v>
       </c>
       <c r="E535" t="s">
-        <v>1286</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="536" spans="1:5">
@@ -13995,7 +14073,7 @@
         <v>539</v>
       </c>
       <c r="E536" t="s">
-        <v>1287</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="537" spans="1:5">
@@ -14012,7 +14090,7 @@
         <v>540</v>
       </c>
       <c r="E537" t="s">
-        <v>1288</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="538" spans="1:5">
@@ -14029,7 +14107,7 @@
         <v>541</v>
       </c>
       <c r="E538" t="s">
-        <v>1289</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="539" spans="1:5">
@@ -14046,7 +14124,7 @@
         <v>542</v>
       </c>
       <c r="E539" t="s">
-        <v>1290</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="540" spans="1:5">
@@ -14063,7 +14141,7 @@
         <v>543</v>
       </c>
       <c r="E540" t="s">
-        <v>1291</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="541" spans="1:5">
@@ -14080,7 +14158,7 @@
         <v>544</v>
       </c>
       <c r="E541" t="s">
-        <v>1292</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="542" spans="1:5">
@@ -14097,7 +14175,7 @@
         <v>545</v>
       </c>
       <c r="E542" t="s">
-        <v>1293</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="543" spans="1:5">
@@ -14114,7 +14192,7 @@
         <v>546</v>
       </c>
       <c r="E543" t="s">
-        <v>1294</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="544" spans="1:5">
@@ -14131,7 +14209,7 @@
         <v>547</v>
       </c>
       <c r="E544" t="s">
-        <v>1295</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="545" spans="1:5">
@@ -14148,7 +14226,7 @@
         <v>548</v>
       </c>
       <c r="E545" t="s">
-        <v>1296</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="546" spans="1:5">
@@ -14165,7 +14243,7 @@
         <v>549</v>
       </c>
       <c r="E546" t="s">
-        <v>1297</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="547" spans="1:5">
@@ -14182,7 +14260,7 @@
         <v>550</v>
       </c>
       <c r="E547" t="s">
-        <v>1298</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="548" spans="1:5">
@@ -14199,7 +14277,7 @@
         <v>551</v>
       </c>
       <c r="E548" t="s">
-        <v>1299</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="549" spans="1:5">
@@ -14216,7 +14294,7 @@
         <v>552</v>
       </c>
       <c r="E549" t="s">
-        <v>1300</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="550" spans="1:5">
@@ -14233,7 +14311,7 @@
         <v>553</v>
       </c>
       <c r="E550" t="s">
-        <v>1301</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="551" spans="1:5">
@@ -14250,7 +14328,7 @@
         <v>554</v>
       </c>
       <c r="E551" t="s">
-        <v>1302</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="552" spans="1:5">
@@ -14267,7 +14345,7 @@
         <v>555</v>
       </c>
       <c r="E552" t="s">
-        <v>1303</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="553" spans="1:5">
@@ -14284,7 +14362,7 @@
         <v>556</v>
       </c>
       <c r="E553" t="s">
-        <v>1304</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="554" spans="1:5">
@@ -14301,7 +14379,7 @@
         <v>557</v>
       </c>
       <c r="E554" t="s">
-        <v>1305</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="555" spans="1:5">
@@ -14318,7 +14396,7 @@
         <v>558</v>
       </c>
       <c r="E555" t="s">
-        <v>1306</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="556" spans="1:5">
@@ -14335,7 +14413,7 @@
         <v>559</v>
       </c>
       <c r="E556" t="s">
-        <v>1307</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="557" spans="1:5">
@@ -14352,7 +14430,7 @@
         <v>560</v>
       </c>
       <c r="E557" t="s">
-        <v>1308</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="558" spans="1:5">
@@ -14369,7 +14447,7 @@
         <v>561</v>
       </c>
       <c r="E558" t="s">
-        <v>1309</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="559" spans="1:5">
@@ -14386,7 +14464,7 @@
         <v>562</v>
       </c>
       <c r="E559" t="s">
-        <v>1310</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="560" spans="1:5">
@@ -14403,7 +14481,7 @@
         <v>563</v>
       </c>
       <c r="E560" t="s">
-        <v>1311</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="561" spans="1:5">
@@ -14420,7 +14498,7 @@
         <v>564</v>
       </c>
       <c r="E561" t="s">
-        <v>1312</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="562" spans="1:5">
@@ -14437,7 +14515,7 @@
         <v>565</v>
       </c>
       <c r="E562" t="s">
-        <v>1313</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="563" spans="1:5">
@@ -14454,7 +14532,7 @@
         <v>566</v>
       </c>
       <c r="E563" t="s">
-        <v>1314</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="564" spans="1:5">
@@ -14471,7 +14549,7 @@
         <v>567</v>
       </c>
       <c r="E564" t="s">
-        <v>1315</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="565" spans="1:5">
@@ -14488,7 +14566,7 @@
         <v>568</v>
       </c>
       <c r="E565" t="s">
-        <v>1316</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="566" spans="1:5">
@@ -14505,7 +14583,7 @@
         <v>569</v>
       </c>
       <c r="E566" t="s">
-        <v>1317</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="567" spans="1:5">
@@ -14522,7 +14600,7 @@
         <v>570</v>
       </c>
       <c r="E567" t="s">
-        <v>1318</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="568" spans="1:5">
@@ -14539,7 +14617,7 @@
         <v>571</v>
       </c>
       <c r="E568" t="s">
-        <v>1319</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="569" spans="1:5">
@@ -14556,7 +14634,7 @@
         <v>572</v>
       </c>
       <c r="E569" t="s">
-        <v>1320</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="570" spans="1:5">
@@ -14573,7 +14651,7 @@
         <v>573</v>
       </c>
       <c r="E570" t="s">
-        <v>1321</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="571" spans="1:5">
@@ -14590,7 +14668,7 @@
         <v>574</v>
       </c>
       <c r="E571" t="s">
-        <v>1322</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="572" spans="1:5">
@@ -14607,7 +14685,7 @@
         <v>575</v>
       </c>
       <c r="E572" t="s">
-        <v>1323</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="573" spans="1:5">
@@ -14624,7 +14702,7 @@
         <v>576</v>
       </c>
       <c r="E573" t="s">
-        <v>1324</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="574" spans="1:5">
@@ -14641,7 +14719,7 @@
         <v>577</v>
       </c>
       <c r="E574" t="s">
-        <v>1325</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="575" spans="1:5">
@@ -14658,7 +14736,7 @@
         <v>578</v>
       </c>
       <c r="E575" t="s">
-        <v>1326</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="576" spans="1:5">
@@ -14675,7 +14753,7 @@
         <v>579</v>
       </c>
       <c r="E576" t="s">
-        <v>1327</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="577" spans="1:5">
@@ -14692,7 +14770,7 @@
         <v>580</v>
       </c>
       <c r="E577" t="s">
-        <v>1328</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="578" spans="1:5">
@@ -14709,7 +14787,7 @@
         <v>581</v>
       </c>
       <c r="E578" t="s">
-        <v>1329</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="579" spans="1:5">
@@ -14726,7 +14804,7 @@
         <v>582</v>
       </c>
       <c r="E579" t="s">
-        <v>1330</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="580" spans="1:5">
@@ -14743,7 +14821,7 @@
         <v>583</v>
       </c>
       <c r="E580" t="s">
-        <v>1331</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="581" spans="1:5">
@@ -14760,7 +14838,7 @@
         <v>584</v>
       </c>
       <c r="E581" t="s">
-        <v>1332</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="582" spans="1:5">
@@ -14777,7 +14855,7 @@
         <v>585</v>
       </c>
       <c r="E582" t="s">
-        <v>1333</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="583" spans="1:5">
@@ -14794,7 +14872,7 @@
         <v>586</v>
       </c>
       <c r="E583" t="s">
-        <v>1334</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="584" spans="1:5">
@@ -14811,7 +14889,7 @@
         <v>587</v>
       </c>
       <c r="E584" t="s">
-        <v>1335</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="585" spans="1:5">
@@ -14828,7 +14906,7 @@
         <v>588</v>
       </c>
       <c r="E585" t="s">
-        <v>1336</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="586" spans="1:5">
@@ -14845,7 +14923,7 @@
         <v>589</v>
       </c>
       <c r="E586" t="s">
-        <v>1337</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="587" spans="1:5">
@@ -14862,7 +14940,7 @@
         <v>590</v>
       </c>
       <c r="E587" t="s">
-        <v>1338</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="588" spans="1:5">
@@ -14879,7 +14957,7 @@
         <v>591</v>
       </c>
       <c r="E588" t="s">
-        <v>1339</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="589" spans="1:5">
@@ -14896,7 +14974,7 @@
         <v>592</v>
       </c>
       <c r="E589" t="s">
-        <v>1340</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="590" spans="1:5">
@@ -14913,7 +14991,7 @@
         <v>593</v>
       </c>
       <c r="E590" t="s">
-        <v>1341</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="591" spans="1:5">
@@ -14930,7 +15008,7 @@
         <v>594</v>
       </c>
       <c r="E591" t="s">
-        <v>1342</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="592" spans="1:5">
@@ -14947,7 +15025,7 @@
         <v>595</v>
       </c>
       <c r="E592" t="s">
-        <v>1343</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="593" spans="1:5">
@@ -14964,7 +15042,7 @@
         <v>596</v>
       </c>
       <c r="E593" t="s">
-        <v>1344</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="594" spans="1:5">
@@ -14981,7 +15059,7 @@
         <v>597</v>
       </c>
       <c r="E594" t="s">
-        <v>1345</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="595" spans="1:5">
@@ -14998,7 +15076,7 @@
         <v>598</v>
       </c>
       <c r="E595" t="s">
-        <v>1346</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="596" spans="1:5">
@@ -15015,7 +15093,7 @@
         <v>599</v>
       </c>
       <c r="E596" t="s">
-        <v>1347</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="597" spans="1:5">
@@ -15032,7 +15110,7 @@
         <v>600</v>
       </c>
       <c r="E597" t="s">
-        <v>1348</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="598" spans="1:5">
@@ -15049,7 +15127,7 @@
         <v>601</v>
       </c>
       <c r="E598" t="s">
-        <v>1349</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="599" spans="1:5">
@@ -15066,7 +15144,7 @@
         <v>602</v>
       </c>
       <c r="E599" t="s">
-        <v>1350</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="600" spans="1:5">
@@ -15083,7 +15161,7 @@
         <v>603</v>
       </c>
       <c r="E600" t="s">
-        <v>1351</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="601" spans="1:5">
@@ -15100,7 +15178,7 @@
         <v>604</v>
       </c>
       <c r="E601" t="s">
-        <v>1352</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="602" spans="1:5">
@@ -15117,7 +15195,7 @@
         <v>605</v>
       </c>
       <c r="E602" t="s">
-        <v>1353</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="603" spans="1:5">
@@ -15134,7 +15212,7 @@
         <v>606</v>
       </c>
       <c r="E603" t="s">
-        <v>1354</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="604" spans="1:5">
@@ -15151,7 +15229,7 @@
         <v>607</v>
       </c>
       <c r="E604" t="s">
-        <v>1355</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="605" spans="1:5">
@@ -15168,7 +15246,7 @@
         <v>608</v>
       </c>
       <c r="E605" t="s">
-        <v>1356</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="606" spans="1:5">
@@ -15185,7 +15263,7 @@
         <v>609</v>
       </c>
       <c r="E606" t="s">
-        <v>1357</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="607" spans="1:5">
@@ -15202,7 +15280,7 @@
         <v>610</v>
       </c>
       <c r="E607" t="s">
-        <v>1358</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="608" spans="1:5">
@@ -15219,7 +15297,7 @@
         <v>611</v>
       </c>
       <c r="E608" t="s">
-        <v>1359</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="609" spans="1:5">
@@ -15236,7 +15314,7 @@
         <v>612</v>
       </c>
       <c r="E609" t="s">
-        <v>1360</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="610" spans="1:5">
@@ -15253,7 +15331,7 @@
         <v>613</v>
       </c>
       <c r="E610" t="s">
-        <v>1361</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="611" spans="1:5">
@@ -15270,7 +15348,7 @@
         <v>614</v>
       </c>
       <c r="E611" t="s">
-        <v>1362</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="612" spans="1:5">
@@ -15287,7 +15365,7 @@
         <v>615</v>
       </c>
       <c r="E612" t="s">
-        <v>1363</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="613" spans="1:5">
@@ -15304,7 +15382,7 @@
         <v>616</v>
       </c>
       <c r="E613" t="s">
-        <v>1364</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="614" spans="1:5">
@@ -15321,7 +15399,7 @@
         <v>617</v>
       </c>
       <c r="E614" t="s">
-        <v>1365</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="615" spans="1:5">
@@ -15338,7 +15416,7 @@
         <v>618</v>
       </c>
       <c r="E615" t="s">
-        <v>1366</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="616" spans="1:5">
@@ -15355,7 +15433,7 @@
         <v>619</v>
       </c>
       <c r="E616" t="s">
-        <v>1367</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="617" spans="1:5">
@@ -15372,7 +15450,7 @@
         <v>620</v>
       </c>
       <c r="E617" t="s">
-        <v>1368</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="618" spans="1:5">
@@ -15389,7 +15467,7 @@
         <v>621</v>
       </c>
       <c r="E618" t="s">
-        <v>1369</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="619" spans="1:5">
@@ -15406,7 +15484,7 @@
         <v>622</v>
       </c>
       <c r="E619" t="s">
-        <v>1370</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="620" spans="1:5">
@@ -15423,7 +15501,7 @@
         <v>623</v>
       </c>
       <c r="E620" t="s">
-        <v>1371</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="621" spans="1:5">
@@ -15440,7 +15518,7 @@
         <v>624</v>
       </c>
       <c r="E621" t="s">
-        <v>1372</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="622" spans="1:5">
@@ -15457,7 +15535,7 @@
         <v>625</v>
       </c>
       <c r="E622" t="s">
-        <v>1373</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="623" spans="1:5">
@@ -15474,7 +15552,7 @@
         <v>626</v>
       </c>
       <c r="E623" t="s">
-        <v>1374</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="624" spans="1:5">
@@ -15491,7 +15569,7 @@
         <v>627</v>
       </c>
       <c r="E624" t="s">
-        <v>1375</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="625" spans="1:5">
@@ -15508,7 +15586,7 @@
         <v>628</v>
       </c>
       <c r="E625" t="s">
-        <v>1376</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="626" spans="1:5">
@@ -15525,7 +15603,7 @@
         <v>629</v>
       </c>
       <c r="E626" t="s">
-        <v>1377</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="627" spans="1:5">
@@ -15542,7 +15620,7 @@
         <v>630</v>
       </c>
       <c r="E627" t="s">
-        <v>1378</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="628" spans="1:5">
@@ -15559,7 +15637,7 @@
         <v>631</v>
       </c>
       <c r="E628" t="s">
-        <v>1379</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="629" spans="1:5">
@@ -15576,7 +15654,7 @@
         <v>632</v>
       </c>
       <c r="E629" t="s">
-        <v>1380</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="630" spans="1:5">
@@ -15593,7 +15671,7 @@
         <v>633</v>
       </c>
       <c r="E630" t="s">
-        <v>1381</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="631" spans="1:5">
@@ -15610,7 +15688,7 @@
         <v>634</v>
       </c>
       <c r="E631" t="s">
-        <v>1382</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="632" spans="1:5">
@@ -15627,7 +15705,7 @@
         <v>635</v>
       </c>
       <c r="E632" t="s">
-        <v>1383</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="633" spans="1:5">
@@ -15644,7 +15722,7 @@
         <v>636</v>
       </c>
       <c r="E633" t="s">
-        <v>1384</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="634" spans="1:5">
@@ -15661,7 +15739,7 @@
         <v>637</v>
       </c>
       <c r="E634" t="s">
-        <v>1385</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="635" spans="1:5">
@@ -15678,7 +15756,7 @@
         <v>638</v>
       </c>
       <c r="E635" t="s">
-        <v>1386</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="636" spans="1:5">
@@ -15695,7 +15773,7 @@
         <v>639</v>
       </c>
       <c r="E636" t="s">
-        <v>1387</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="637" spans="1:5">
@@ -15712,7 +15790,7 @@
         <v>640</v>
       </c>
       <c r="E637" t="s">
-        <v>1388</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="638" spans="1:5">
@@ -15729,7 +15807,7 @@
         <v>641</v>
       </c>
       <c r="E638" t="s">
-        <v>1389</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="639" spans="1:5">
@@ -15746,7 +15824,7 @@
         <v>642</v>
       </c>
       <c r="E639" t="s">
-        <v>1390</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="640" spans="1:5">
@@ -15763,7 +15841,7 @@
         <v>643</v>
       </c>
       <c r="E640" t="s">
-        <v>1391</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="641" spans="1:5">
@@ -15780,7 +15858,7 @@
         <v>644</v>
       </c>
       <c r="E641" t="s">
-        <v>1392</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="642" spans="1:5">
@@ -15797,7 +15875,7 @@
         <v>645</v>
       </c>
       <c r="E642" t="s">
-        <v>1393</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="643" spans="1:5">
@@ -15814,7 +15892,7 @@
         <v>646</v>
       </c>
       <c r="E643" t="s">
-        <v>1394</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="644" spans="1:5">
@@ -15831,7 +15909,7 @@
         <v>647</v>
       </c>
       <c r="E644" t="s">
-        <v>1395</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="645" spans="1:5">
@@ -15848,7 +15926,7 @@
         <v>648</v>
       </c>
       <c r="E645" t="s">
-        <v>1396</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="646" spans="1:5">
@@ -15865,7 +15943,7 @@
         <v>649</v>
       </c>
       <c r="E646" t="s">
-        <v>1397</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="647" spans="1:5">
@@ -15882,7 +15960,7 @@
         <v>650</v>
       </c>
       <c r="E647" t="s">
-        <v>1398</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="648" spans="1:5">
@@ -15899,7 +15977,7 @@
         <v>651</v>
       </c>
       <c r="E648" t="s">
-        <v>1399</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="649" spans="1:5">
@@ -15916,7 +15994,7 @@
         <v>652</v>
       </c>
       <c r="E649" t="s">
-        <v>1400</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="650" spans="1:5">
@@ -15933,7 +16011,7 @@
         <v>653</v>
       </c>
       <c r="E650" t="s">
-        <v>1401</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="651" spans="1:5">
@@ -15950,7 +16028,7 @@
         <v>654</v>
       </c>
       <c r="E651" t="s">
-        <v>1402</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="652" spans="1:5">
@@ -15967,7 +16045,7 @@
         <v>655</v>
       </c>
       <c r="E652" t="s">
-        <v>1403</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="653" spans="1:5">
@@ -15984,7 +16062,7 @@
         <v>656</v>
       </c>
       <c r="E653" t="s">
-        <v>1404</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="654" spans="1:5">
@@ -16001,7 +16079,7 @@
         <v>657</v>
       </c>
       <c r="E654" t="s">
-        <v>1405</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="655" spans="1:5">
@@ -16018,7 +16096,7 @@
         <v>658</v>
       </c>
       <c r="E655" t="s">
-        <v>1406</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="656" spans="1:5">
@@ -16035,7 +16113,7 @@
         <v>659</v>
       </c>
       <c r="E656" t="s">
-        <v>1407</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="657" spans="1:5">
@@ -16052,7 +16130,7 @@
         <v>660</v>
       </c>
       <c r="E657" t="s">
-        <v>1408</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="658" spans="1:5">
@@ -16069,7 +16147,7 @@
         <v>661</v>
       </c>
       <c r="E658" t="s">
-        <v>1409</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="659" spans="1:5">
@@ -16086,7 +16164,7 @@
         <v>662</v>
       </c>
       <c r="E659" t="s">
-        <v>1410</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="660" spans="1:5">
@@ -16103,7 +16181,7 @@
         <v>663</v>
       </c>
       <c r="E660" t="s">
-        <v>1411</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="661" spans="1:5">
@@ -16120,7 +16198,7 @@
         <v>664</v>
       </c>
       <c r="E661" t="s">
-        <v>1412</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="662" spans="1:5">
@@ -16137,7 +16215,7 @@
         <v>665</v>
       </c>
       <c r="E662" t="s">
-        <v>1413</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="663" spans="1:5">
@@ -16154,7 +16232,7 @@
         <v>666</v>
       </c>
       <c r="E663" t="s">
-        <v>1414</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="664" spans="1:5">
@@ -16171,7 +16249,7 @@
         <v>667</v>
       </c>
       <c r="E664" t="s">
-        <v>1415</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="665" spans="1:5">
@@ -16188,7 +16266,7 @@
         <v>668</v>
       </c>
       <c r="E665" t="s">
-        <v>1416</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="666" spans="1:5">
@@ -16205,7 +16283,7 @@
         <v>669</v>
       </c>
       <c r="E666" t="s">
-        <v>1417</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="667" spans="1:5">
@@ -16222,7 +16300,7 @@
         <v>670</v>
       </c>
       <c r="E667" t="s">
-        <v>1418</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="668" spans="1:5">
@@ -16239,7 +16317,7 @@
         <v>671</v>
       </c>
       <c r="E668" t="s">
-        <v>1419</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="669" spans="1:5">
@@ -16256,7 +16334,7 @@
         <v>672</v>
       </c>
       <c r="E669" t="s">
-        <v>1420</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="670" spans="1:5">
@@ -16273,7 +16351,7 @@
         <v>673</v>
       </c>
       <c r="E670" t="s">
-        <v>1421</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="671" spans="1:5">
@@ -16290,7 +16368,7 @@
         <v>674</v>
       </c>
       <c r="E671" t="s">
-        <v>1422</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="672" spans="1:5">
@@ -16307,7 +16385,7 @@
         <v>675</v>
       </c>
       <c r="E672" t="s">
-        <v>1423</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="673" spans="1:5">
@@ -16324,7 +16402,7 @@
         <v>676</v>
       </c>
       <c r="E673" t="s">
-        <v>1424</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="674" spans="1:5">
@@ -16341,7 +16419,7 @@
         <v>677</v>
       </c>
       <c r="E674" t="s">
-        <v>1425</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="675" spans="1:5">
@@ -16358,7 +16436,7 @@
         <v>678</v>
       </c>
       <c r="E675" t="s">
-        <v>1426</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="676" spans="1:5">
@@ -16375,7 +16453,7 @@
         <v>679</v>
       </c>
       <c r="E676" t="s">
-        <v>1427</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="677" spans="1:5">
@@ -16392,7 +16470,7 @@
         <v>680</v>
       </c>
       <c r="E677" t="s">
-        <v>1428</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="678" spans="1:5">
@@ -16409,7 +16487,7 @@
         <v>681</v>
       </c>
       <c r="E678" t="s">
-        <v>1429</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="679" spans="1:5">
@@ -16426,7 +16504,7 @@
         <v>682</v>
       </c>
       <c r="E679" t="s">
-        <v>1430</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="680" spans="1:5">
@@ -16443,7 +16521,7 @@
         <v>683</v>
       </c>
       <c r="E680" t="s">
-        <v>1431</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="681" spans="1:5">
@@ -16460,7 +16538,7 @@
         <v>684</v>
       </c>
       <c r="E681" t="s">
-        <v>1432</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="682" spans="1:5">
@@ -16477,7 +16555,7 @@
         <v>685</v>
       </c>
       <c r="E682" t="s">
-        <v>1433</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="683" spans="1:5">
@@ -16494,7 +16572,7 @@
         <v>686</v>
       </c>
       <c r="E683" t="s">
-        <v>1434</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="684" spans="1:5">
@@ -16511,7 +16589,7 @@
         <v>687</v>
       </c>
       <c r="E684" t="s">
-        <v>1435</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="685" spans="1:5">
@@ -16528,7 +16606,7 @@
         <v>688</v>
       </c>
       <c r="E685" t="s">
-        <v>1436</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="686" spans="1:5">
@@ -16545,7 +16623,7 @@
         <v>689</v>
       </c>
       <c r="E686" t="s">
-        <v>1437</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="687" spans="1:5">
@@ -16562,7 +16640,7 @@
         <v>690</v>
       </c>
       <c r="E687" t="s">
-        <v>1438</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="688" spans="1:5">
@@ -16579,7 +16657,7 @@
         <v>691</v>
       </c>
       <c r="E688" t="s">
-        <v>1439</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="689" spans="1:5">
@@ -16596,7 +16674,7 @@
         <v>692</v>
       </c>
       <c r="E689" t="s">
-        <v>1440</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="690" spans="1:5">
@@ -16613,7 +16691,7 @@
         <v>693</v>
       </c>
       <c r="E690" t="s">
-        <v>1441</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="691" spans="1:5">
@@ -16630,7 +16708,7 @@
         <v>694</v>
       </c>
       <c r="E691" t="s">
-        <v>1442</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="692" spans="1:5">
@@ -16647,7 +16725,7 @@
         <v>695</v>
       </c>
       <c r="E692" t="s">
-        <v>1443</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="693" spans="1:5">
@@ -16664,7 +16742,7 @@
         <v>696</v>
       </c>
       <c r="E693" t="s">
-        <v>1444</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="694" spans="1:5">
@@ -16681,7 +16759,7 @@
         <v>697</v>
       </c>
       <c r="E694" t="s">
-        <v>1445</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="695" spans="1:5">
@@ -16698,7 +16776,7 @@
         <v>698</v>
       </c>
       <c r="E695" t="s">
-        <v>1446</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="696" spans="1:5">
@@ -16715,7 +16793,7 @@
         <v>699</v>
       </c>
       <c r="E696" t="s">
-        <v>1447</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="697" spans="1:5">
@@ -16732,7 +16810,7 @@
         <v>700</v>
       </c>
       <c r="E697" t="s">
-        <v>1448</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="698" spans="1:5">
@@ -16749,7 +16827,7 @@
         <v>701</v>
       </c>
       <c r="E698" t="s">
-        <v>1449</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="699" spans="1:5">
@@ -16766,7 +16844,7 @@
         <v>702</v>
       </c>
       <c r="E699" t="s">
-        <v>1450</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="700" spans="1:5">
@@ -16783,7 +16861,7 @@
         <v>703</v>
       </c>
       <c r="E700" t="s">
-        <v>1451</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="701" spans="1:5">
@@ -16800,7 +16878,7 @@
         <v>704</v>
       </c>
       <c r="E701" t="s">
-        <v>1452</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="702" spans="1:5">
@@ -16817,7 +16895,7 @@
         <v>705</v>
       </c>
       <c r="E702" t="s">
-        <v>1453</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="703" spans="1:5">
@@ -16834,7 +16912,7 @@
         <v>706</v>
       </c>
       <c r="E703" t="s">
-        <v>1454</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="704" spans="1:5">
@@ -16851,7 +16929,7 @@
         <v>707</v>
       </c>
       <c r="E704" t="s">
-        <v>1455</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="705" spans="1:5">
@@ -16868,7 +16946,7 @@
         <v>708</v>
       </c>
       <c r="E705" t="s">
-        <v>1456</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="706" spans="1:5">
@@ -16885,7 +16963,7 @@
         <v>709</v>
       </c>
       <c r="E706" t="s">
-        <v>1457</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="707" spans="1:5">
@@ -16902,7 +16980,7 @@
         <v>710</v>
       </c>
       <c r="E707" t="s">
-        <v>1458</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="708" spans="1:5">
@@ -16919,7 +16997,7 @@
         <v>711</v>
       </c>
       <c r="E708" t="s">
-        <v>1459</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="709" spans="1:5">
@@ -16936,7 +17014,7 @@
         <v>712</v>
       </c>
       <c r="E709" t="s">
-        <v>1460</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="710" spans="1:5">
@@ -16953,7 +17031,7 @@
         <v>713</v>
       </c>
       <c r="E710" t="s">
-        <v>1461</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="711" spans="1:5">
@@ -16970,7 +17048,7 @@
         <v>714</v>
       </c>
       <c r="E711" t="s">
-        <v>1462</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="712" spans="1:5">
@@ -16987,7 +17065,7 @@
         <v>715</v>
       </c>
       <c r="E712" t="s">
-        <v>1463</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="713" spans="1:5">
@@ -17004,7 +17082,7 @@
         <v>716</v>
       </c>
       <c r="E713" t="s">
-        <v>1464</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="714" spans="1:5">
@@ -17021,7 +17099,7 @@
         <v>717</v>
       </c>
       <c r="E714" t="s">
-        <v>1465</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="715" spans="1:5">
@@ -17038,7 +17116,7 @@
         <v>718</v>
       </c>
       <c r="E715" t="s">
-        <v>1466</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="716" spans="1:5">
@@ -17055,7 +17133,7 @@
         <v>719</v>
       </c>
       <c r="E716" t="s">
-        <v>1467</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="717" spans="1:5">
@@ -17072,7 +17150,7 @@
         <v>720</v>
       </c>
       <c r="E717" t="s">
-        <v>1468</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="718" spans="1:5">
@@ -17089,7 +17167,7 @@
         <v>721</v>
       </c>
       <c r="E718" t="s">
-        <v>1469</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="719" spans="1:5">
@@ -17106,7 +17184,7 @@
         <v>722</v>
       </c>
       <c r="E719" t="s">
-        <v>1470</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="720" spans="1:5">
@@ -17123,7 +17201,7 @@
         <v>723</v>
       </c>
       <c r="E720" t="s">
-        <v>1471</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="721" spans="1:5">
@@ -17140,7 +17218,7 @@
         <v>724</v>
       </c>
       <c r="E721" t="s">
-        <v>1472</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="722" spans="1:5">
@@ -17157,7 +17235,7 @@
         <v>725</v>
       </c>
       <c r="E722" t="s">
-        <v>1473</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="723" spans="1:5">
@@ -17174,7 +17252,7 @@
         <v>726</v>
       </c>
       <c r="E723" t="s">
-        <v>1474</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="724" spans="1:5">
@@ -17191,7 +17269,7 @@
         <v>727</v>
       </c>
       <c r="E724" t="s">
-        <v>1475</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="725" spans="1:5">
@@ -17208,7 +17286,7 @@
         <v>728</v>
       </c>
       <c r="E725" t="s">
-        <v>1476</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="726" spans="1:5">
@@ -17225,7 +17303,7 @@
         <v>729</v>
       </c>
       <c r="E726" t="s">
-        <v>1477</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="727" spans="1:5">
@@ -17242,7 +17320,7 @@
         <v>730</v>
       </c>
       <c r="E727" t="s">
-        <v>1478</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="728" spans="1:5">
@@ -17259,7 +17337,7 @@
         <v>731</v>
       </c>
       <c r="E728" t="s">
-        <v>1479</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="729" spans="1:5">
@@ -17276,7 +17354,7 @@
         <v>732</v>
       </c>
       <c r="E729" t="s">
-        <v>1480</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="730" spans="1:5">
@@ -17293,7 +17371,7 @@
         <v>733</v>
       </c>
       <c r="E730" t="s">
-        <v>1481</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="731" spans="1:5">
@@ -17310,7 +17388,7 @@
         <v>734</v>
       </c>
       <c r="E731" t="s">
-        <v>1482</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="732" spans="1:5">
@@ -17327,7 +17405,7 @@
         <v>735</v>
       </c>
       <c r="E732" t="s">
-        <v>1483</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="733" spans="1:5">
@@ -17344,7 +17422,7 @@
         <v>736</v>
       </c>
       <c r="E733" t="s">
-        <v>1484</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="734" spans="1:5">
@@ -17361,7 +17439,7 @@
         <v>737</v>
       </c>
       <c r="E734" t="s">
-        <v>1485</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="735" spans="1:5">
@@ -17378,7 +17456,7 @@
         <v>738</v>
       </c>
       <c r="E735" t="s">
-        <v>1486</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="736" spans="1:5">
@@ -17395,7 +17473,7 @@
         <v>739</v>
       </c>
       <c r="E736" t="s">
-        <v>1487</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="737" spans="1:5">
@@ -17412,7 +17490,7 @@
         <v>740</v>
       </c>
       <c r="E737" t="s">
-        <v>1488</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="738" spans="1:5">
@@ -17429,7 +17507,7 @@
         <v>741</v>
       </c>
       <c r="E738" t="s">
-        <v>1489</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="739" spans="1:5">
@@ -17446,7 +17524,7 @@
         <v>742</v>
       </c>
       <c r="E739" t="s">
-        <v>1490</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="740" spans="1:5">
@@ -17463,7 +17541,7 @@
         <v>743</v>
       </c>
       <c r="E740" t="s">
-        <v>1491</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="741" spans="1:5">
@@ -17480,7 +17558,7 @@
         <v>744</v>
       </c>
       <c r="E741" t="s">
-        <v>1492</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="742" spans="1:5">
@@ -17497,7 +17575,7 @@
         <v>745</v>
       </c>
       <c r="E742" t="s">
-        <v>1493</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="743" spans="1:5">
@@ -17514,7 +17592,7 @@
         <v>746</v>
       </c>
       <c r="E743" t="s">
-        <v>1494</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="744" spans="1:5">
@@ -17531,7 +17609,7 @@
         <v>747</v>
       </c>
       <c r="E744" t="s">
-        <v>1495</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="745" spans="1:5">
@@ -17548,7 +17626,7 @@
         <v>748</v>
       </c>
       <c r="E745" t="s">
-        <v>1496</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="746" spans="1:5">
@@ -17565,7 +17643,7 @@
         <v>749</v>
       </c>
       <c r="E746" t="s">
-        <v>1497</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="747" spans="1:5">
@@ -17582,7 +17660,7 @@
         <v>750</v>
       </c>
       <c r="E747" t="s">
-        <v>1498</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="748" spans="1:5">
@@ -17599,7 +17677,7 @@
         <v>751</v>
       </c>
       <c r="E748" t="s">
-        <v>1499</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="749" spans="1:5">
@@ -17616,7 +17694,7 @@
         <v>752</v>
       </c>
       <c r="E749" t="s">
-        <v>1500</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="750" spans="1:5">
@@ -17633,7 +17711,7 @@
         <v>753</v>
       </c>
       <c r="E750" t="s">
-        <v>1501</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="751" spans="1:5">
@@ -17650,7 +17728,228 @@
         <v>754</v>
       </c>
       <c r="E751" t="s">
-        <v>1502</v>
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="752" spans="1:5">
+      <c r="A752" s="1">
+        <v>750</v>
+      </c>
+      <c r="B752" t="s">
+        <v>4</v>
+      </c>
+      <c r="C752" t="s">
+        <v>4</v>
+      </c>
+      <c r="D752" t="s">
+        <v>755</v>
+      </c>
+      <c r="E752" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="753" spans="1:5">
+      <c r="A753" s="1">
+        <v>751</v>
+      </c>
+      <c r="B753" t="s">
+        <v>4</v>
+      </c>
+      <c r="C753" t="s">
+        <v>4</v>
+      </c>
+      <c r="D753" t="s">
+        <v>756</v>
+      </c>
+      <c r="E753" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="754" spans="1:5">
+      <c r="A754" s="1">
+        <v>752</v>
+      </c>
+      <c r="B754" t="s">
+        <v>4</v>
+      </c>
+      <c r="C754" t="s">
+        <v>4</v>
+      </c>
+      <c r="D754" t="s">
+        <v>757</v>
+      </c>
+      <c r="E754" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="755" spans="1:5">
+      <c r="A755" s="1">
+        <v>753</v>
+      </c>
+      <c r="B755" t="s">
+        <v>4</v>
+      </c>
+      <c r="C755" t="s">
+        <v>4</v>
+      </c>
+      <c r="D755" t="s">
+        <v>758</v>
+      </c>
+      <c r="E755" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="756" spans="1:5">
+      <c r="A756" s="1">
+        <v>754</v>
+      </c>
+      <c r="B756" t="s">
+        <v>4</v>
+      </c>
+      <c r="C756" t="s">
+        <v>4</v>
+      </c>
+      <c r="D756" t="s">
+        <v>759</v>
+      </c>
+      <c r="E756" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="757" spans="1:5">
+      <c r="A757" s="1">
+        <v>755</v>
+      </c>
+      <c r="B757" t="s">
+        <v>4</v>
+      </c>
+      <c r="C757" t="s">
+        <v>4</v>
+      </c>
+      <c r="D757" t="s">
+        <v>760</v>
+      </c>
+      <c r="E757" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="758" spans="1:5">
+      <c r="A758" s="1">
+        <v>756</v>
+      </c>
+      <c r="B758" t="s">
+        <v>4</v>
+      </c>
+      <c r="C758" t="s">
+        <v>4</v>
+      </c>
+      <c r="D758" t="s">
+        <v>761</v>
+      </c>
+      <c r="E758" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="759" spans="1:5">
+      <c r="A759" s="1">
+        <v>757</v>
+      </c>
+      <c r="B759" t="s">
+        <v>4</v>
+      </c>
+      <c r="C759" t="s">
+        <v>4</v>
+      </c>
+      <c r="D759" t="s">
+        <v>762</v>
+      </c>
+      <c r="E759" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="760" spans="1:5">
+      <c r="A760" s="1">
+        <v>758</v>
+      </c>
+      <c r="B760" t="s">
+        <v>4</v>
+      </c>
+      <c r="C760" t="s">
+        <v>4</v>
+      </c>
+      <c r="D760" t="s">
+        <v>763</v>
+      </c>
+      <c r="E760" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="761" spans="1:5">
+      <c r="A761" s="1">
+        <v>759</v>
+      </c>
+      <c r="B761" t="s">
+        <v>4</v>
+      </c>
+      <c r="C761" t="s">
+        <v>4</v>
+      </c>
+      <c r="D761" t="s">
+        <v>764</v>
+      </c>
+      <c r="E761" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="762" spans="1:5">
+      <c r="A762" s="1">
+        <v>760</v>
+      </c>
+      <c r="B762" t="s">
+        <v>4</v>
+      </c>
+      <c r="C762" t="s">
+        <v>4</v>
+      </c>
+      <c r="D762" t="s">
+        <v>765</v>
+      </c>
+      <c r="E762" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="763" spans="1:5">
+      <c r="A763" s="1">
+        <v>761</v>
+      </c>
+      <c r="B763" t="s">
+        <v>4</v>
+      </c>
+      <c r="C763" t="s">
+        <v>4</v>
+      </c>
+      <c r="D763" t="s">
+        <v>766</v>
+      </c>
+      <c r="E763" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="764" spans="1:5">
+      <c r="A764" s="1">
+        <v>762</v>
+      </c>
+      <c r="B764" t="s">
+        <v>4</v>
+      </c>
+      <c r="C764" t="s">
+        <v>4</v>
+      </c>
+      <c r="D764" t="s">
+        <v>767</v>
+      </c>
+      <c r="E764" t="s">
+        <v>1528</v>
       </c>
     </row>
   </sheetData>
